--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -94,7 +94,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -161,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,6 +170,9 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,424 +716,462 @@
       <c r="C1" s="4">
         <v>44938</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="D1" s="5">
+        <v>44945</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00B300BD-00FC-4521-843D-008400B60087}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0055009A-006F-4370-9430-003900580084}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1148,7 +1188,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{002D0028-005F-4DE0-86C0-00B3005D0092}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0008003A-0037-4804-B2C6-009A00BF005F}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1165,7 +1205,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00A20026-007E-4313-AB52-0059005E0071}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B90037-0018-420B-AE60-004000DC000E}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -716,10 +716,12 @@
       <c r="C1" s="4">
         <v>44938</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>44945</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="5">
+        <v>44952</v>
+      </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -740,10 +742,12 @@
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -764,10 +768,12 @@
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -788,10 +794,12 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -812,10 +820,12 @@
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -836,10 +846,12 @@
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -860,10 +872,12 @@
       <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -884,10 +898,12 @@
       <c r="C8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -908,10 +924,12 @@
       <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -932,10 +950,12 @@
       <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -956,10 +976,12 @@
       <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -980,10 +1002,12 @@
       <c r="C12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1004,10 +1028,12 @@
       <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1028,10 +1054,12 @@
       <c r="C14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1052,10 +1080,12 @@
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1076,10 +1106,12 @@
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1100,10 +1132,12 @@
       <c r="C17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1124,10 +1158,12 @@
       <c r="C18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1148,10 +1184,12 @@
       <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1171,7 +1209,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0055009A-006F-4370-9430-003900580084}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00AB00D4-00BD-4E91-A10F-007A0058009E}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1188,7 +1226,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0008003A-0037-4804-B2C6-009A00BF005F}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0061003D-0054-48A0-A3CA-00D200C20006}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1205,7 +1243,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B90037-0018-420B-AE60-004000DC000E}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00840099-0021-4A54-A29E-00CC00BC008B}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBA15543-BCED-47C7-B727-DD71BAEFA21B}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08E47EDC-813D-499C-A4F2-32638256DF00}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
   <si>
     <t>№</t>
   </si>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -515,7 +515,9 @@
       <c r="G1" s="4">
         <v>44959</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="4">
+        <v>44966</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -545,7 +547,9 @@
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -575,7 +579,9 @@
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -605,7 +611,9 @@
       <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -635,7 +643,9 @@
       <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -665,7 +675,9 @@
       <c r="G6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -695,7 +707,9 @@
       <c r="G7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -725,7 +739,9 @@
       <c r="G8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -755,7 +771,9 @@
       <c r="G9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -785,7 +803,9 @@
       <c r="G10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -815,7 +835,9 @@
       <c r="G11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -845,7 +867,9 @@
       <c r="G12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -875,7 +899,9 @@
       <c r="G13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -905,7 +931,9 @@
       <c r="G14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -935,7 +963,9 @@
       <c r="G15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -965,7 +995,9 @@
       <c r="G16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -995,7 +1027,9 @@
       <c r="G17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1025,7 +1059,9 @@
       <c r="G18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1055,7 +1091,9 @@
       <c r="G19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1088,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C857B808-55C6-456B-A01E-989DF88AC485}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08E47EDC-813D-499C-A4F2-32638256DF00}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F15CB937-FE27-43CD-A14F-16F60C645805}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Голиков Антон Александрович</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>Гусев Илья Витальевич</t>
@@ -483,7 +486,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -518,7 +521,9 @@
       <c r="H1" s="4">
         <v>44966</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="4">
+        <v>44967</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -550,7 +555,9 @@
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -582,7 +589,9 @@
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -614,7 +623,9 @@
       <c r="H4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -626,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
@@ -646,7 +657,9 @@
       <c r="H5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -658,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -678,7 +691,9 @@
       <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -690,7 +705,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>3</v>
@@ -710,7 +725,9 @@
       <c r="H7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -722,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>3</v>
@@ -742,7 +759,9 @@
       <c r="H8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -754,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>3</v>
@@ -774,7 +793,9 @@
       <c r="H9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -786,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -806,7 +827,9 @@
       <c r="H10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -818,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>
@@ -838,7 +861,9 @@
       <c r="H11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -850,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -870,7 +895,9 @@
       <c r="H12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -882,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>3</v>
@@ -902,7 +929,9 @@
       <c r="H13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -914,7 +943,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>3</v>
@@ -934,7 +963,9 @@
       <c r="H14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -946,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
@@ -966,7 +997,9 @@
       <c r="H15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -978,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>3</v>
@@ -998,7 +1031,9 @@
       <c r="H16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1010,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>3</v>
@@ -1030,7 +1065,9 @@
       <c r="H17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1042,7 +1079,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>3</v>
@@ -1062,7 +1099,9 @@
       <c r="H18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1074,7 +1113,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>5</v>
@@ -1094,7 +1133,9 @@
       <c r="H19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1127,7 +1168,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,7 +1191,9 @@
       <c r="D1" s="9">
         <v>2</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="9">
+        <v>3</v>
+      </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -1159,7 +1202,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1172,7 +1215,9 @@
       <c r="C2" s="9">
         <v>8</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9">
+        <v>8</v>
+      </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1183,7 +1228,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9">
         <f>SUM(C2:L2)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1235,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9">
         <v>7</v>
@@ -1259,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1281,12 +1326,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9">
         <v>9</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>7</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1297,7 +1344,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1305,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9">
         <v>10</v>
@@ -1329,12 +1376,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>8</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1345,7 +1394,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1353,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9">
         <v>10</v>
@@ -1377,12 +1426,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>8</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1393,7 +1444,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1401,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="9">
         <v>7</v>
@@ -1425,12 +1476,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="9">
         <v>10</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9">
+        <v>10</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1441,7 +1494,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1449,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1471,7 +1524,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1493,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9">
         <v>10</v>
@@ -1519,12 +1572,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9">
         <v>10</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9">
+        <v>10</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1535,7 +1590,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1543,12 +1598,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="9">
         <v>10</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9">
+        <v>10</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -1559,7 +1616,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1567,7 +1624,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="115" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F15CB937-FE27-43CD-A14F-16F60C645805}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D6E3976-05D2-40E8-A8AB-5471B4306BC4}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="28">
   <si>
     <t>№</t>
   </si>
@@ -43,12 +43,12 @@
     <t>+</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Вертянов Никита Васильевич</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Голиков Антон Александрович</t>
   </si>
   <si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>Ястребков Вадим Андреевич</t>
+  </si>
+  <si>
+    <t>Proc</t>
+  </si>
+  <si>
+    <t>Trig</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>ORM</t>
   </si>
   <si>
     <t>Итог</t>
@@ -107,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +129,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,6 +238,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -496,7 +517,7 @@
     <col min="3" max="14" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -524,8 +545,12 @@
       <c r="I1" s="4">
         <v>44967</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="J1" s="4">
+        <v>44972</v>
+      </c>
+      <c r="K1" s="10">
+        <v>44973</v>
+      </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -558,8 +583,12 @@
       <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -569,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
@@ -584,16 +613,20 @@
         <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -626,8 +659,12 @@
       <c r="I4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -640,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -652,16 +689,20 @@
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -674,28 +715,32 @@
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -714,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>3</v>
@@ -723,13 +768,17 @@
         <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -748,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>3</v>
@@ -757,13 +806,17 @@
         <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -785,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>3</v>
@@ -796,8 +849,12 @@
       <c r="I9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -830,8 +887,12 @@
       <c r="I10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -864,8 +925,12 @@
       <c r="I11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -898,8 +963,12 @@
       <c r="I12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -921,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>3</v>
@@ -932,8 +1001,12 @@
       <c r="I13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -952,22 +1025,26 @@
         <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -980,28 +1057,32 @@
         <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1029,13 +1110,17 @@
         <v>3</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -1068,8 +1153,12 @@
       <c r="I17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1102,8 +1191,12 @@
       <c r="I18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -1116,10 +1209,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
@@ -1128,16 +1221,20 @@
         <v>3</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -1167,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C857B808-55C6-456B-A01E-989DF88AC485}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1185,16 +1282,18 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9"/>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -1202,7 +1301,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1236,10 +1335,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9">
+        <v>10</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1250,7 +1353,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9">
         <f t="shared" ref="M3:M19" si="0">SUM(C3:L3)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1260,8 +1363,12 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9">
+        <v>10</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1272,7 +1379,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1407,7 +1514,9 @@
       <c r="C10" s="9">
         <v>10</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>10</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1418,7 +1527,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1484,7 +1593,9 @@
       <c r="D13" s="9">
         <v>10</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9">
+        <v>10</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1494,7 +1605,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1504,8 +1615,12 @@
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9">
+        <v>6</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1516,7 +1631,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1606,7 +1721,9 @@
       <c r="D18" s="9">
         <v>10</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <v>10</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1616,7 +1733,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:13">

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="169" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D6E3976-05D2-40E8-A8AB-5471B4306BC4}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F41BCA-0891-4DD2-9664-582BBC3A050B}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="29">
   <si>
     <t>№</t>
   </si>
   <si>
     <t>Студент</t>
+  </si>
+  <si>
+    <t>Рейтинг</t>
   </si>
   <si>
     <t>Агеенков Константин Валерьевич</t>
@@ -145,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -211,11 +214,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,11 +259,29 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -504,20 +538,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1"/>
     <col min="2" max="2" width="34.42578125" bestFit="1"/>
-    <col min="3" max="14" width="9.140625" style="1"/>
+    <col min="3" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -553,706 +587,796 @@
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="N1" s="11"/>
+      <c r="O1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="K2" s="5">
+        <v>10</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="11"/>
+      <c r="O2" s="9">
+        <f>SUM(K2:N2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K3" s="5">
+        <v>10</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3" s="11"/>
+      <c r="O3" s="9">
+        <f t="shared" ref="O3:O19" si="0">SUM(K3:N3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K4" s="5">
+        <v>10</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4" s="11"/>
+      <c r="O4" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>4</v>
+      <c r="K5" s="5">
+        <v>0</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5" s="11"/>
+      <c r="O5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6" s="11"/>
+      <c r="O6" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7" s="11"/>
+      <c r="O7" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="K8" s="5">
+        <v>-15</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8" s="11"/>
+      <c r="O8" s="9">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-15</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9" s="11"/>
+      <c r="O9" s="9">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K10" s="5">
+        <v>10</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10" s="11"/>
+      <c r="O10" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-15</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11" s="11"/>
+      <c r="O11" s="9">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-15</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12" s="11"/>
+      <c r="O12" s="9">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="K13" s="5">
+        <v>-15</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="N13" s="11"/>
+      <c r="O13" s="9">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K14" s="5">
+        <v>10</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="N14" s="11"/>
+      <c r="O14" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-15</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="N15" s="11"/>
+      <c r="O15" s="9">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K16" s="5">
+        <v>10</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="N16" s="11"/>
+      <c r="O16" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K17" s="5">
+        <v>10</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="N17" s="11"/>
+      <c r="O17" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K18" s="5">
+        <v>10</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="N18" s="11"/>
+      <c r="O18" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K19" s="5">
+        <v>10</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N19">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:N19">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:N19">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O19">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O19">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"#"</formula>
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
@@ -1264,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C857B808-55C6-456B-A01E-989DF88AC485}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1283,16 +1407,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -1301,7 +1425,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1309,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <v>8</v>
@@ -1335,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="9">
         <v>10</v>
@@ -1361,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
@@ -1387,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9">
         <v>7</v>
@@ -1411,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1433,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9">
         <v>9</v>
@@ -1459,7 +1583,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9">
         <v>10</v>
@@ -1483,7 +1607,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9">
         <v>10</v>
@@ -1509,7 +1633,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9">
         <v>10</v>
@@ -1535,7 +1659,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="9">
         <v>7</v>
@@ -1561,7 +1685,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9">
         <v>7</v>
@@ -1585,7 +1709,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="9">
         <v>10</v>
@@ -1613,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9">
         <v>10</v>
@@ -1639,7 +1763,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1661,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9">
         <v>10</v>
@@ -1687,7 +1811,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="9">
         <v>10</v>
@@ -1713,7 +1837,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9">
         <v>10</v>
@@ -1741,7 +1865,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="211" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F41BCA-0891-4DD2-9664-582BBC3A050B}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3850EF9-5966-449D-B6E5-D83F6BE0369B}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="28">
   <si>
     <t>№</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Script</t>
-  </si>
-  <si>
-    <t>ORM</t>
   </si>
   <si>
     <t>Итог</t>
@@ -540,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -585,7 +582,9 @@
       <c r="K1" s="10">
         <v>44973</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="4">
+        <v>44987</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="11"/>
       <c r="O1" s="9" t="s">
@@ -626,12 +625,14 @@
       <c r="K2" s="5">
         <v>10</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5">
+        <v>10</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="11"/>
       <c r="O2" s="9">
         <f>SUM(K2:N2)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -668,12 +669,14 @@
       <c r="K3" s="5">
         <v>10</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5">
+        <v>-15</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="11"/>
       <c r="O3" s="9">
         <f t="shared" ref="O3:O19" si="0">SUM(K3:N3)</f>
-        <v>10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -710,12 +713,14 @@
       <c r="K4" s="5">
         <v>10</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <v>-15</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="11"/>
       <c r="O4" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -752,12 +757,14 @@
       <c r="K5" s="5">
         <v>0</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5">
+        <v>-15</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="11"/>
       <c r="O5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -794,12 +801,14 @@
       <c r="K6" s="5">
         <v>10</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5">
+        <v>10</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="11"/>
       <c r="O6" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -836,12 +845,14 @@
       <c r="K7" s="5">
         <v>10</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5">
+        <v>10</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="11"/>
       <c r="O7" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -878,12 +889,14 @@
       <c r="K8" s="5">
         <v>-15</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5">
+        <v>10</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="11"/>
       <c r="O8" s="9">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -920,12 +933,14 @@
       <c r="K9" s="5">
         <v>-15</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <v>10</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="11"/>
       <c r="O9" s="9">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -962,12 +977,14 @@
       <c r="K10" s="5">
         <v>10</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <v>10</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="11"/>
       <c r="O10" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1004,12 +1021,14 @@
       <c r="K11" s="5">
         <v>-15</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5">
+        <v>10</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="11"/>
       <c r="O11" s="9">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1044,14 +1063,16 @@
         <v>8</v>
       </c>
       <c r="K12" s="5">
-        <v>-15</v>
-      </c>
-      <c r="L12" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>10</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="11"/>
       <c r="O12" s="9">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1086,14 +1107,16 @@
         <v>4</v>
       </c>
       <c r="K13" s="5">
-        <v>-15</v>
-      </c>
-      <c r="L13" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>10</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="11"/>
       <c r="O13" s="9">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1130,12 +1153,14 @@
       <c r="K14" s="5">
         <v>10</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <v>10</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="11"/>
       <c r="O14" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1172,12 +1197,14 @@
       <c r="K15" s="5">
         <v>-15</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5">
+        <v>-15</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="11"/>
       <c r="O15" s="9">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1214,12 +1241,14 @@
       <c r="K16" s="5">
         <v>10</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5">
+        <v>10</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="11"/>
       <c r="O16" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1256,12 +1285,14 @@
       <c r="K17" s="5">
         <v>10</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5">
+        <v>10</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="11"/>
       <c r="O17" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1298,12 +1329,14 @@
       <c r="K18" s="5">
         <v>10</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5">
+        <v>10</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="11"/>
       <c r="O18" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1340,12 +1373,14 @@
       <c r="K19" s="5">
         <v>10</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5">
+        <v>10</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="11"/>
       <c r="O19" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1388,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C857B808-55C6-456B-A01E-989DF88AC485}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1415,9 +1450,7 @@
       <c r="E1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -1425,7 +1458,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1615,7 +1648,9 @@
       <c r="D9" s="9">
         <v>8</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9">
+        <v>10</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1625,7 +1660,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1667,7 +1702,9 @@
       <c r="D11" s="9">
         <v>8</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <v>10</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1677,7 +1714,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1690,7 +1727,9 @@
       <c r="C12" s="9">
         <v>7</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <v>8</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1701,7 +1740,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1793,7 +1832,9 @@
       <c r="D16" s="9">
         <v>10</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <v>10</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1803,7 +1844,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:13">

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="237" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3850EF9-5966-449D-B6E5-D83F6BE0369B}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E688BD44-31F9-49F3-AFE1-4AE28FAFE7EA}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -585,7 +585,9 @@
       <c r="L1" s="4">
         <v>44987</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="4">
+        <v>44994</v>
+      </c>
       <c r="N1" s="11"/>
       <c r="O1" s="9" t="s">
         <v>2</v>
@@ -628,11 +630,13 @@
       <c r="L2" s="5">
         <v>10</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="M2" s="5">
+        <v>15</v>
+      </c>
       <c r="N2" s="11"/>
       <c r="O2" s="9">
         <f>SUM(K2:N2)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -670,13 +674,15 @@
         <v>10</v>
       </c>
       <c r="L3" s="5">
-        <v>-15</v>
-      </c>
-      <c r="M3" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>-10</v>
+      </c>
       <c r="N3" s="11"/>
       <c r="O3" s="9">
         <f t="shared" ref="O3:O19" si="0">SUM(K3:N3)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -714,13 +720,15 @@
         <v>10</v>
       </c>
       <c r="L4" s="5">
-        <v>-15</v>
-      </c>
-      <c r="M4" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>15</v>
+      </c>
       <c r="N4" s="11"/>
       <c r="O4" s="9">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -760,11 +768,13 @@
       <c r="L5" s="5">
         <v>-15</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5">
+        <v>-10</v>
+      </c>
       <c r="N5" s="11"/>
       <c r="O5" s="9">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -804,11 +814,13 @@
       <c r="L6" s="5">
         <v>10</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5">
+        <v>-10</v>
+      </c>
       <c r="N6" s="11"/>
       <c r="O6" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -848,11 +860,13 @@
       <c r="L7" s="5">
         <v>10</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5">
+        <v>15</v>
+      </c>
       <c r="N7" s="11"/>
       <c r="O7" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -892,11 +906,13 @@
       <c r="L8" s="5">
         <v>10</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="5">
+        <v>15</v>
+      </c>
       <c r="N8" s="11"/>
       <c r="O8" s="9">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -936,11 +952,13 @@
       <c r="L9" s="5">
         <v>10</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="5">
+        <v>-10</v>
+      </c>
       <c r="N9" s="11"/>
       <c r="O9" s="9">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -980,11 +998,13 @@
       <c r="L10" s="5">
         <v>10</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="5">
+        <v>15</v>
+      </c>
       <c r="N10" s="11"/>
       <c r="O10" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1024,11 +1044,13 @@
       <c r="L11" s="5">
         <v>10</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="5">
+        <v>15</v>
+      </c>
       <c r="N11" s="11"/>
       <c r="O11" s="9">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1068,11 +1090,13 @@
       <c r="L12" s="5">
         <v>10</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="5">
+        <v>-10</v>
+      </c>
       <c r="N12" s="11"/>
       <c r="O12" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1112,11 +1136,13 @@
       <c r="L13" s="5">
         <v>10</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5">
+        <v>-10</v>
+      </c>
       <c r="N13" s="11"/>
       <c r="O13" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1156,11 +1182,13 @@
       <c r="L14" s="5">
         <v>10</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="5">
+        <v>15</v>
+      </c>
       <c r="N14" s="11"/>
       <c r="O14" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1200,11 +1228,13 @@
       <c r="L15" s="5">
         <v>-15</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="5">
+        <v>-10</v>
+      </c>
       <c r="N15" s="11"/>
       <c r="O15" s="9">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1244,11 +1274,13 @@
       <c r="L16" s="5">
         <v>10</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="5">
+        <v>15</v>
+      </c>
       <c r="N16" s="11"/>
       <c r="O16" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1288,11 +1320,13 @@
       <c r="L17" s="5">
         <v>10</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="5">
+        <v>15</v>
+      </c>
       <c r="N17" s="11"/>
       <c r="O17" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1332,11 +1366,13 @@
       <c r="L18" s="5">
         <v>10</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="5">
+        <v>15</v>
+      </c>
       <c r="N18" s="11"/>
       <c r="O18" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1376,11 +1412,13 @@
       <c r="L19" s="5">
         <v>10</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="5">
+        <v>-10</v>
+      </c>
       <c r="N19" s="11"/>
       <c r="O19" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C857B808-55C6-456B-A01E-989DF88AC485}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="260" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E688BD44-31F9-49F3-AFE1-4AE28FAFE7EA}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D928270D-E4E2-4620-93CB-F65A552DEDB8}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -112,7 +112,19 @@
     <t>Script</t>
   </si>
   <si>
+    <t>ORM</t>
+  </si>
+  <si>
     <t>Итог</t>
+  </si>
+  <si>
+    <t>15-25</t>
+  </si>
+  <si>
+    <t>25-35</t>
+  </si>
+  <si>
+    <t>35-40</t>
   </si>
 </sst>
 </file>
@@ -228,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,6 +269,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -537,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -588,7 +606,9 @@
       <c r="M1" s="4">
         <v>44994</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="12">
+        <v>44995</v>
+      </c>
       <c r="O1" s="9" t="s">
         <v>2</v>
       </c>
@@ -633,10 +653,12 @@
       <c r="M2" s="5">
         <v>15</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="11">
+        <v>10</v>
+      </c>
       <c r="O2" s="9">
         <f>SUM(K2:N2)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -679,10 +701,12 @@
       <c r="M3" s="5">
         <v>-10</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="N3" s="11">
+        <v>10</v>
+      </c>
       <c r="O3" s="9">
         <f t="shared" ref="O3:O19" si="0">SUM(K3:N3)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -725,10 +749,12 @@
       <c r="M4" s="5">
         <v>15</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="11">
+        <v>10</v>
+      </c>
       <c r="O4" s="9">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -771,10 +797,12 @@
       <c r="M5" s="5">
         <v>-10</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="11">
+        <v>10</v>
+      </c>
       <c r="O5" s="9">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -817,10 +845,12 @@
       <c r="M6" s="5">
         <v>-10</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="11">
+        <v>-15</v>
+      </c>
       <c r="O6" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -863,10 +893,12 @@
       <c r="M7" s="5">
         <v>15</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="11">
+        <v>10</v>
+      </c>
       <c r="O7" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -909,10 +941,12 @@
       <c r="M8" s="5">
         <v>15</v>
       </c>
-      <c r="N8" s="11"/>
+      <c r="N8" s="11">
+        <v>10</v>
+      </c>
       <c r="O8" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -955,10 +989,12 @@
       <c r="M9" s="5">
         <v>-10</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="11">
+        <v>-15</v>
+      </c>
       <c r="O9" s="9">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1001,10 +1037,12 @@
       <c r="M10" s="5">
         <v>15</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="11">
+        <v>10</v>
+      </c>
       <c r="O10" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1047,10 +1085,12 @@
       <c r="M11" s="5">
         <v>15</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="11">
+        <v>10</v>
+      </c>
       <c r="O11" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1093,10 +1133,12 @@
       <c r="M12" s="5">
         <v>-10</v>
       </c>
-      <c r="N12" s="11"/>
+      <c r="N12" s="11">
+        <v>10</v>
+      </c>
       <c r="O12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1139,10 +1181,12 @@
       <c r="M13" s="5">
         <v>-10</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="11">
+        <v>10</v>
+      </c>
       <c r="O13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1185,10 +1229,12 @@
       <c r="M14" s="5">
         <v>15</v>
       </c>
-      <c r="N14" s="11"/>
+      <c r="N14" s="11">
+        <v>10</v>
+      </c>
       <c r="O14" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1231,10 +1277,12 @@
       <c r="M15" s="5">
         <v>-10</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="11">
+        <v>-15</v>
+      </c>
       <c r="O15" s="9">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1277,10 +1325,12 @@
       <c r="M16" s="5">
         <v>15</v>
       </c>
-      <c r="N16" s="11"/>
+      <c r="N16" s="11">
+        <v>10</v>
+      </c>
       <c r="O16" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1323,10 +1373,12 @@
       <c r="M17" s="5">
         <v>15</v>
       </c>
-      <c r="N17" s="11"/>
+      <c r="N17" s="11">
+        <v>10</v>
+      </c>
       <c r="O17" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1369,10 +1421,12 @@
       <c r="M18" s="5">
         <v>15</v>
       </c>
-      <c r="N18" s="11"/>
+      <c r="N18" s="11">
+        <v>10</v>
+      </c>
       <c r="O18" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1415,10 +1469,12 @@
       <c r="M19" s="5">
         <v>-10</v>
       </c>
-      <c r="N19" s="11"/>
+      <c r="N19" s="11">
+        <v>-15</v>
+      </c>
       <c r="O19" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-5</v>
       </c>
     </row>
   </sheetData>
@@ -1459,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C857B808-55C6-456B-A01E-989DF88AC485}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1488,7 +1544,9 @@
       <c r="E1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -1496,7 +1554,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1587,7 +1645,9 @@
       <c r="C5" s="9">
         <v>7</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <v>10</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1598,7 +1658,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1659,8 +1719,12 @@
       <c r="C8" s="9">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="9">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9">
+        <v>10</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1670,7 +1734,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1743,7 +1807,9 @@
       <c r="E11" s="9">
         <v>10</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9">
+        <v>10</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1752,7 +1818,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1898,7 +1964,9 @@
       <c r="D17" s="9">
         <v>10</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <v>13</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1908,7 +1976,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1961,6 +2029,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:13">
+      <c r="G22" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="G23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="G24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="292" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D928270D-E4E2-4620-93CB-F65A552DEDB8}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2202A83-81A1-4DEB-B751-9FF0CF2F0925}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -236,11 +236,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +288,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -553,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -566,7 +586,7 @@
     <col min="3" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:19" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,11 +629,17 @@
       <c r="N1" s="12">
         <v>44995</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="14">
+        <v>45001</v>
+      </c>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -657,11 +683,17 @@
         <v>10</v>
       </c>
       <c r="O2" s="9">
+        <v>10</v>
+      </c>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="16">
         <f>SUM(K2:N2)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -705,11 +737,17 @@
         <v>10</v>
       </c>
       <c r="O3" s="9">
-        <f t="shared" ref="O3:O19" si="0">SUM(K3:N3)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>-15</v>
+      </c>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="16">
+        <f>SUM(K3:N3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -753,11 +791,17 @@
         <v>10</v>
       </c>
       <c r="O4" s="9">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="16">
+        <f>SUM(K4:N4)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:19">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -801,11 +845,17 @@
         <v>10</v>
       </c>
       <c r="O5" s="9">
-        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="16">
+        <f>SUM(K5:N5)</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -849,11 +899,17 @@
         <v>-15</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="16">
+        <f>SUM(K6:N6)</f>
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:19">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -897,11 +953,17 @@
         <v>10</v>
       </c>
       <c r="O7" s="9">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="16">
+        <f>SUM(K7:N7)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:19">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -945,11 +1007,17 @@
         <v>10</v>
       </c>
       <c r="O8" s="9">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="16">
+        <f>SUM(K8:N8)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:19">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -987,17 +1055,23 @@
         <v>10</v>
       </c>
       <c r="M9" s="5">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="N9" s="11">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="O9" s="9">
-        <f t="shared" si="0"/>
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="16">
+        <f>SUM(K9:N9)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1041,11 +1115,17 @@
         <v>10</v>
       </c>
       <c r="O10" s="9">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="16">
+        <f>SUM(K10:N10)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:19">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1089,11 +1169,17 @@
         <v>10</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="16">
+        <f>SUM(K11:N11)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:19">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1137,11 +1223,17 @@
         <v>10</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="16">
+        <f>SUM(K12:N12)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1185,11 +1277,17 @@
         <v>10</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="16">
+        <f>SUM(K13:N13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1233,11 +1331,17 @@
         <v>10</v>
       </c>
       <c r="O14" s="9">
-        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="16">
+        <f>SUM(K14:N14)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:19">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1281,11 +1385,17 @@
         <v>-15</v>
       </c>
       <c r="O15" s="9">
-        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="16">
+        <f>SUM(K15:N15)</f>
         <v>-55</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:19">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1329,11 +1439,17 @@
         <v>10</v>
       </c>
       <c r="O16" s="9">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="16">
+        <f>SUM(K16:N16)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:19">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1377,11 +1493,17 @@
         <v>10</v>
       </c>
       <c r="O17" s="9">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="16">
+        <f>SUM(K17:N17)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:19">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1425,11 +1547,17 @@
         <v>10</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="16">
+        <f>SUM(K18:N18)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:19">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1473,7 +1601,13 @@
         <v>-15</v>
       </c>
       <c r="O19" s="9">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="16">
+        <f>SUM(K19:N19)</f>
         <v>-5</v>
       </c>
     </row>
@@ -1493,17 +1627,17 @@
       <formula>"#"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O19">
+  <conditionalFormatting sqref="S2:S19">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O19">
+  <conditionalFormatting sqref="S2:S19">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O19">
+  <conditionalFormatting sqref="S2:S19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1517,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C857B808-55C6-456B-A01E-989DF88AC485}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1668,7 +1802,9 @@
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9">
+        <v>9</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1680,7 +1816,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1696,7 +1832,9 @@
       <c r="D7" s="9">
         <v>7</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9">
+        <v>10</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1706,7 +1844,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1995,7 +2133,9 @@
       <c r="E18" s="9">
         <v>10</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9">
+        <v>10</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -2004,7 +2144,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2014,8 +2154,12 @@
       <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9">
+        <v>10</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2026,7 +2170,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13">

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="320" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2202A83-81A1-4DEB-B751-9FF0CF2F0925}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="11_BCC555C12D41843C8279C6703E4188B57ED1477B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76DC9942-A1E0-4EF3-9EF0-056FD2818723}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -1651,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C857B808-55C6-456B-A01E-989DF88AC485}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2001,7 +2001,9 @@
       <c r="E13" s="9">
         <v>10</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9">
+        <v>10</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -2010,7 +2012,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -142,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -207,30 +207,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -238,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,15 +243,16 @@
     <xf fontId="0" fillId="0" borderId="4" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
@@ -274,9 +260,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -799,6 +782,7 @@
     <col bestFit="1" min="1" max="1" width="2.85546875"/>
     <col bestFit="1" min="2" max="2" width="34.42578125"/>
     <col min="3" max="15" style="1" width="9.140625"/>
+    <col min="16" max="18" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
@@ -847,65 +831,69 @@
       <c r="O1" s="7">
         <v>45001</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="7">
         <v>45006</v>
       </c>
-      <c r="Q1" s="9"/>
+      <c r="Q1" s="8">
+        <v>45008</v>
+      </c>
       <c r="R1" s="9"/>
       <c r="S1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="13">
-        <v>10</v>
-      </c>
-      <c r="L2" s="13">
-        <v>10</v>
-      </c>
-      <c r="M2" s="13">
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="12">
+        <v>10</v>
+      </c>
+      <c r="L2" s="12">
+        <v>10</v>
+      </c>
+      <c r="M2" s="12">
         <v>15</v>
       </c>
-      <c r="N2" s="14">
-        <v>10</v>
-      </c>
-      <c r="O2" s="15">
+      <c r="N2" s="13">
+        <v>10</v>
+      </c>
+      <c r="O2" s="9">
         <v>10</v>
       </c>
       <c r="P2" s="9">
         <v>10</v>
       </c>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="9">
+        <v>-10</v>
+      </c>
       <c r="R2" s="9"/>
       <c r="S2" s="10">
         <f t="shared" ref="S2:S9" si="0">SUM(K2:N2)</f>
@@ -913,55 +901,57 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="13">
-        <v>10</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12">
+        <v>10</v>
+      </c>
+      <c r="L3" s="12">
         <v>0</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>-10</v>
       </c>
-      <c r="N3" s="14">
-        <v>10</v>
-      </c>
-      <c r="O3" s="15">
+      <c r="N3" s="13">
+        <v>10</v>
+      </c>
+      <c r="O3" s="9">
         <v>-15</v>
       </c>
       <c r="P3" s="9">
         <v>-15</v>
       </c>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="9">
+        <v>15</v>
+      </c>
       <c r="R3" s="9"/>
       <c r="S3" s="10">
         <f t="shared" si="0"/>
@@ -969,55 +959,57 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="13">
-        <v>10</v>
-      </c>
-      <c r="L4" s="13">
+      <c r="J4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="12">
+        <v>10</v>
+      </c>
+      <c r="L4" s="12">
         <v>0</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>15</v>
       </c>
-      <c r="N4" s="14">
-        <v>10</v>
-      </c>
-      <c r="O4" s="15">
+      <c r="N4" s="13">
+        <v>10</v>
+      </c>
+      <c r="O4" s="9">
         <v>10</v>
       </c>
       <c r="P4" s="9">
         <v>10</v>
       </c>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="9">
+        <v>15</v>
+      </c>
       <c r="R4" s="9"/>
       <c r="S4" s="10">
         <f t="shared" si="0"/>
@@ -1025,55 +1017,57 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>0</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>-15</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>-10</v>
       </c>
-      <c r="N5" s="14">
-        <v>10</v>
-      </c>
-      <c r="O5" s="15">
+      <c r="N5" s="13">
+        <v>10</v>
+      </c>
+      <c r="O5" s="9">
         <v>-15</v>
       </c>
       <c r="P5" s="9">
         <v>-15</v>
       </c>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="9">
+        <v>-10</v>
+      </c>
       <c r="R5" s="9"/>
       <c r="S5" s="10">
         <f t="shared" si="0"/>
@@ -1081,55 +1075,57 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="13">
-        <v>10</v>
-      </c>
-      <c r="L6" s="13">
-        <v>10</v>
-      </c>
-      <c r="M6" s="13">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="12">
+        <v>10</v>
+      </c>
+      <c r="L6" s="12">
+        <v>10</v>
+      </c>
+      <c r="M6" s="12">
         <v>-10</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="13">
         <v>-15</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="9">
         <v>10</v>
       </c>
       <c r="P6" s="9">
         <v>-15</v>
       </c>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="9">
+        <v>-10</v>
+      </c>
       <c r="R6" s="9"/>
       <c r="S6" s="10">
         <f t="shared" si="0"/>
@@ -1137,55 +1133,57 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="13">
-        <v>10</v>
-      </c>
-      <c r="L7" s="13">
-        <v>10</v>
-      </c>
-      <c r="M7" s="13">
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12">
+        <v>10</v>
+      </c>
+      <c r="L7" s="12">
+        <v>10</v>
+      </c>
+      <c r="M7" s="12">
         <v>15</v>
       </c>
-      <c r="N7" s="14">
-        <v>10</v>
-      </c>
-      <c r="O7" s="15">
+      <c r="N7" s="13">
+        <v>10</v>
+      </c>
+      <c r="O7" s="9">
         <v>10</v>
       </c>
       <c r="P7" s="9">
         <v>10</v>
       </c>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="9">
+        <v>15</v>
+      </c>
       <c r="R7" s="9"/>
       <c r="S7" s="10">
         <f t="shared" si="0"/>
@@ -1193,55 +1191,57 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="13">
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12">
         <v>-15</v>
       </c>
-      <c r="L8" s="13">
-        <v>10</v>
-      </c>
-      <c r="M8" s="13">
+      <c r="L8" s="12">
+        <v>10</v>
+      </c>
+      <c r="M8" s="12">
         <v>15</v>
       </c>
-      <c r="N8" s="14">
-        <v>10</v>
-      </c>
-      <c r="O8" s="15">
+      <c r="N8" s="13">
+        <v>10</v>
+      </c>
+      <c r="O8" s="9">
         <v>10</v>
       </c>
       <c r="P8" s="9">
         <v>10</v>
       </c>
-      <c r="Q8" s="9"/>
+      <c r="Q8" s="9">
+        <v>15</v>
+      </c>
       <c r="R8" s="9"/>
       <c r="S8" s="10">
         <f t="shared" si="0"/>
@@ -1249,55 +1249,57 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="12">
         <v>-15</v>
       </c>
-      <c r="L9" s="13">
-        <v>10</v>
-      </c>
-      <c r="M9" s="13">
+      <c r="L9" s="12">
+        <v>10</v>
+      </c>
+      <c r="M9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <v>0</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="9">
         <v>10</v>
       </c>
       <c r="P9" s="9">
         <v>0</v>
       </c>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="9">
+        <v>15</v>
+      </c>
       <c r="R9" s="9"/>
       <c r="S9" s="10">
         <f t="shared" si="0"/>
@@ -1305,55 +1307,57 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="13">
-        <v>10</v>
-      </c>
-      <c r="L10" s="13">
-        <v>10</v>
-      </c>
-      <c r="M10" s="13">
+      <c r="J10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="12">
+        <v>10</v>
+      </c>
+      <c r="L10" s="12">
+        <v>10</v>
+      </c>
+      <c r="M10" s="12">
         <v>15</v>
       </c>
-      <c r="N10" s="14">
-        <v>10</v>
-      </c>
-      <c r="O10" s="15">
+      <c r="N10" s="13">
+        <v>10</v>
+      </c>
+      <c r="O10" s="9">
         <v>10</v>
       </c>
       <c r="P10" s="9">
         <v>10</v>
       </c>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="9">
+        <v>15</v>
+      </c>
       <c r="R10" s="9"/>
       <c r="S10" s="10">
         <f t="shared" ref="S10:S19" si="1">SUM(K10:N10)</f>
@@ -1361,55 +1365,57 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12">
         <v>-15</v>
       </c>
-      <c r="L11" s="13">
-        <v>10</v>
-      </c>
-      <c r="M11" s="13">
+      <c r="L11" s="12">
+        <v>10</v>
+      </c>
+      <c r="M11" s="12">
         <v>15</v>
       </c>
-      <c r="N11" s="14">
-        <v>10</v>
-      </c>
-      <c r="O11" s="15">
+      <c r="N11" s="13">
+        <v>10</v>
+      </c>
+      <c r="O11" s="9">
         <v>10</v>
       </c>
       <c r="P11" s="9">
         <v>-15</v>
       </c>
-      <c r="Q11" s="9"/>
+      <c r="Q11" s="9">
+        <v>15</v>
+      </c>
       <c r="R11" s="9"/>
       <c r="S11" s="10">
         <f t="shared" si="1"/>
@@ -1417,55 +1423,57 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>0</v>
       </c>
-      <c r="L12" s="13">
-        <v>10</v>
-      </c>
-      <c r="M12" s="13">
+      <c r="L12" s="12">
+        <v>10</v>
+      </c>
+      <c r="M12" s="12">
         <v>-10</v>
       </c>
-      <c r="N12" s="14">
-        <v>10</v>
-      </c>
-      <c r="O12" s="15">
+      <c r="N12" s="13">
+        <v>10</v>
+      </c>
+      <c r="O12" s="9">
         <v>10</v>
       </c>
       <c r="P12" s="9">
         <v>-15</v>
       </c>
-      <c r="Q12" s="9"/>
+      <c r="Q12" s="9">
+        <v>15</v>
+      </c>
       <c r="R12" s="9"/>
       <c r="S12" s="10">
         <f t="shared" si="1"/>
@@ -1473,55 +1481,57 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="C13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="12">
         <v>0</v>
       </c>
-      <c r="L13" s="13">
-        <v>10</v>
-      </c>
-      <c r="M13" s="13">
+      <c r="L13" s="12">
+        <v>10</v>
+      </c>
+      <c r="M13" s="12">
         <v>-10</v>
       </c>
-      <c r="N13" s="14">
-        <v>10</v>
-      </c>
-      <c r="O13" s="15">
+      <c r="N13" s="13">
+        <v>10</v>
+      </c>
+      <c r="O13" s="9">
         <v>0</v>
       </c>
       <c r="P13" s="9">
         <v>-15</v>
       </c>
-      <c r="Q13" s="9"/>
+      <c r="Q13" s="9">
+        <v>-10</v>
+      </c>
       <c r="R13" s="9"/>
       <c r="S13" s="10">
         <f t="shared" si="1"/>
@@ -1529,55 +1539,57 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="13">
-        <v>10</v>
-      </c>
-      <c r="L14" s="13">
-        <v>10</v>
-      </c>
-      <c r="M14" s="13">
+      <c r="C14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="12">
+        <v>10</v>
+      </c>
+      <c r="L14" s="12">
+        <v>10</v>
+      </c>
+      <c r="M14" s="12">
         <v>15</v>
       </c>
-      <c r="N14" s="14">
-        <v>10</v>
-      </c>
-      <c r="O14" s="15">
+      <c r="N14" s="13">
+        <v>10</v>
+      </c>
+      <c r="O14" s="9">
         <v>-15</v>
       </c>
       <c r="P14" s="9">
         <v>-15</v>
       </c>
-      <c r="Q14" s="9"/>
+      <c r="Q14" s="9">
+        <v>15</v>
+      </c>
       <c r="R14" s="9"/>
       <c r="S14" s="10">
         <f t="shared" si="1"/>
@@ -1585,55 +1597,57 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="13">
+      <c r="C15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="12">
         <v>-15</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <v>-15</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>-10</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="13">
         <v>-15</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="9">
         <v>-15</v>
       </c>
       <c r="P15" s="9">
         <v>-15</v>
       </c>
-      <c r="Q15" s="9"/>
+      <c r="Q15" s="9">
+        <v>-10</v>
+      </c>
       <c r="R15" s="9"/>
       <c r="S15" s="10">
         <f t="shared" si="1"/>
@@ -1641,55 +1655,57 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="13" t="s">
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="13">
-        <v>10</v>
-      </c>
-      <c r="L16" s="13">
-        <v>10</v>
-      </c>
-      <c r="M16" s="13">
+      <c r="K16" s="12">
+        <v>10</v>
+      </c>
+      <c r="L16" s="12">
+        <v>10</v>
+      </c>
+      <c r="M16" s="12">
         <v>15</v>
       </c>
-      <c r="N16" s="14">
-        <v>10</v>
-      </c>
-      <c r="O16" s="15">
+      <c r="N16" s="13">
+        <v>10</v>
+      </c>
+      <c r="O16" s="9">
         <v>10</v>
       </c>
       <c r="P16" s="9">
         <v>10</v>
       </c>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="9">
+        <v>15</v>
+      </c>
       <c r="R16" s="9"/>
       <c r="S16" s="10">
         <f t="shared" si="1"/>
@@ -1697,55 +1713,57 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="13">
-        <v>10</v>
-      </c>
-      <c r="L17" s="13">
-        <v>10</v>
-      </c>
-      <c r="M17" s="13">
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="12">
+        <v>10</v>
+      </c>
+      <c r="L17" s="12">
+        <v>10</v>
+      </c>
+      <c r="M17" s="12">
         <v>15</v>
       </c>
-      <c r="N17" s="14">
-        <v>10</v>
-      </c>
-      <c r="O17" s="15">
+      <c r="N17" s="13">
+        <v>10</v>
+      </c>
+      <c r="O17" s="9">
         <v>10</v>
       </c>
       <c r="P17" s="9">
         <v>10</v>
       </c>
-      <c r="Q17" s="9"/>
+      <c r="Q17" s="9">
+        <v>-10</v>
+      </c>
       <c r="R17" s="9"/>
       <c r="S17" s="10">
         <f t="shared" si="1"/>
@@ -1753,55 +1771,57 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="13">
-        <v>10</v>
-      </c>
-      <c r="L18" s="13">
-        <v>10</v>
-      </c>
-      <c r="M18" s="13">
+      <c r="C18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="12">
+        <v>10</v>
+      </c>
+      <c r="L18" s="12">
+        <v>10</v>
+      </c>
+      <c r="M18" s="12">
         <v>15</v>
       </c>
-      <c r="N18" s="14">
-        <v>10</v>
-      </c>
-      <c r="O18" s="15">
+      <c r="N18" s="13">
+        <v>10</v>
+      </c>
+      <c r="O18" s="9">
         <v>10</v>
       </c>
       <c r="P18" s="9">
         <v>10</v>
       </c>
-      <c r="Q18" s="9"/>
+      <c r="Q18" s="9">
+        <v>15</v>
+      </c>
       <c r="R18" s="9"/>
       <c r="S18" s="10">
         <f t="shared" si="1"/>
@@ -1809,55 +1829,57 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="13">
-        <v>10</v>
-      </c>
-      <c r="L19" s="13">
-        <v>10</v>
-      </c>
-      <c r="M19" s="13">
+      <c r="C19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="12">
+        <v>10</v>
+      </c>
+      <c r="L19" s="12">
+        <v>10</v>
+      </c>
+      <c r="M19" s="12">
         <v>-10</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="13">
         <v>-15</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="9">
         <v>10</v>
       </c>
       <c r="P19" s="9">
         <v>-15</v>
       </c>
-      <c r="Q19" s="9"/>
+      <c r="Q19" s="9">
+        <v>-10</v>
+      </c>
       <c r="R19" s="9"/>
       <c r="S19" s="10">
         <f t="shared" si="1"/>
@@ -1873,7 +1895,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{00740058-00CB-4B20-B79D-0025003700F3}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{00BC00E6-000F-4BFF-89AB-009100D100D6}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1890,7 +1912,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{002100C3-00D4-4900-BA86-004600150086}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{000A0086-001C-4E9E-85BF-000E00A600D6}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1907,7 +1929,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00080027-0031-4FC5-8F3F-00C300660033}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{002B0041-00C6-45B4-AD1E-0069001700E4}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1924,7 +1946,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{00020010-0032-4D7F-9E99-00D6004100CA}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{003900E4-009F-4C91-BED6-001D007D000C}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1935,7 +1957,7 @@
           <xm:sqref>S2:S19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{005E008F-00FE-44A2-BA96-00FF0051003B}">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{00C200BE-000C-4AE9-8B2C-00E800C10081}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1946,7 +1968,7 @@
           <xm:sqref>S2:S19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005C00BA-000D-4E86-B2EE-00800055001C}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00490026-00C6-4753-8818-004E00E30018}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1983,518 +2005,518 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="9">
         <v>8</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="9">
         <v>8</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9">
         <f t="shared" ref="M2:M19" si="2">SUM(C2:L2)</f>
         <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15">
-        <v>10</v>
-      </c>
-      <c r="D3" s="15">
-        <v>10</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15">
+      <c r="C3" s="9">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15">
-        <v>10</v>
-      </c>
-      <c r="D4" s="15">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15">
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="9">
         <v>7</v>
       </c>
-      <c r="D5" s="15">
-        <v>10</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15">
+      <c r="D5" s="9">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
         <v>9</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="9">
         <v>9</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="9">
         <v>7</v>
       </c>
-      <c r="E7" s="15">
-        <v>10</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15">
+      <c r="E7" s="9">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="15">
-        <v>10</v>
-      </c>
-      <c r="D8" s="15">
-        <v>10</v>
-      </c>
-      <c r="E8" s="15">
-        <v>10</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15">
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15">
-        <v>10</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
         <v>8</v>
       </c>
-      <c r="E9" s="15">
-        <v>10</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15">
+      <c r="E9" s="9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15">
-        <v>10</v>
-      </c>
-      <c r="D10" s="15">
-        <v>10</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15">
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="9">
         <v>8</v>
       </c>
-      <c r="E11" s="15">
-        <v>10</v>
-      </c>
-      <c r="F11" s="15">
-        <v>10</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15">
+      <c r="E11" s="9">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="9">
         <v>7</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="9">
         <v>8</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15">
-        <v>10</v>
-      </c>
-      <c r="D13" s="15">
-        <v>10</v>
-      </c>
-      <c r="E13" s="15">
-        <v>10</v>
-      </c>
-      <c r="F13" s="15">
-        <v>10</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15">
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9">
+        <v>10</v>
+      </c>
+      <c r="E13" s="9">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="15">
-        <v>10</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9">
         <v>6</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="15">
-        <v>10</v>
-      </c>
-      <c r="D16" s="15">
-        <v>10</v>
-      </c>
-      <c r="E16" s="15">
-        <v>10</v>
-      </c>
-      <c r="F16" s="15">
-        <v>10</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15">
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9">
+        <v>10</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="15">
-        <v>10</v>
-      </c>
-      <c r="D17" s="15">
-        <v>10</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="C17" s="9">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9">
         <v>13</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="9">
         <v>12</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="15">
-        <v>10</v>
-      </c>
-      <c r="D18" s="15">
-        <v>10</v>
-      </c>
-      <c r="E18" s="15">
-        <v>10</v>
-      </c>
-      <c r="F18" s="15">
-        <v>10</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15">
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9">
+        <v>10</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="15">
-        <v>10</v>
-      </c>
-      <c r="D19" s="15">
-        <v>10</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15">
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="22">
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2511,7 +2533,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>№</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>ORM</t>
+  </si>
+  <si>
+    <t>Install</t>
   </si>
   <si>
     <t>Итог</t>
@@ -246,13 +249,11 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
@@ -781,8 +782,7 @@
   <cols>
     <col bestFit="1" min="1" max="1" width="2.85546875"/>
     <col bestFit="1" min="2" max="2" width="34.42578125"/>
-    <col min="3" max="15" style="1" width="9.140625"/>
-    <col min="16" max="18" style="1" width="9.140625"/>
+    <col min="3" max="18" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
@@ -834,16 +834,21 @@
       <c r="P1" s="7">
         <v>45006</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="7">
         <v>45008</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="10" t="s">
+      <c r="R1" s="7">
+        <v>45009</v>
+      </c>
+      <c r="S1" s="8">
+        <v>45015</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -885,23 +890,28 @@
       <c r="N2" s="13">
         <v>10</v>
       </c>
-      <c r="O2" s="9">
-        <v>10</v>
-      </c>
-      <c r="P2" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="9">
+      <c r="O2" s="10">
+        <v>10</v>
+      </c>
+      <c r="P2" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="10">
         <v>-10</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="10">
-        <f t="shared" ref="S2:S9" si="0">SUM(K2:N2)</f>
+      <c r="R2" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S2">
+        <v>-15</v>
+      </c>
+      <c r="T2" s="9">
+        <f t="shared" ref="T2:T9" si="0">SUM(K2:N2)</f>
         <v>45</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -943,23 +953,28 @@
       <c r="N3" s="13">
         <v>10</v>
       </c>
-      <c r="O3" s="9">
-        <v>-15</v>
-      </c>
-      <c r="P3" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q3" s="9">
+      <c r="O3" s="10">
+        <v>-15</v>
+      </c>
+      <c r="P3" s="10">
+        <v>-15</v>
+      </c>
+      <c r="Q3" s="10">
         <v>15</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="10">
+      <c r="R3" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S3">
+        <v>-15</v>
+      </c>
+      <c r="T3" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1001,23 +1016,28 @@
       <c r="N4" s="13">
         <v>10</v>
       </c>
-      <c r="O4" s="9">
-        <v>10</v>
-      </c>
-      <c r="P4" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="9">
+      <c r="O4" s="10">
+        <v>10</v>
+      </c>
+      <c r="P4" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="10">
         <v>15</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="10">
+      <c r="R4" s="10">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1059,23 +1079,28 @@
       <c r="N5" s="13">
         <v>10</v>
       </c>
-      <c r="O5" s="9">
-        <v>-15</v>
-      </c>
-      <c r="P5" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q5" s="9">
+      <c r="O5" s="10">
+        <v>-15</v>
+      </c>
+      <c r="P5" s="10">
+        <v>-15</v>
+      </c>
+      <c r="Q5" s="10">
         <v>-10</v>
       </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="10">
+      <c r="R5" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S5">
+        <v>-15</v>
+      </c>
+      <c r="T5" s="9">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1117,23 +1142,28 @@
       <c r="N6" s="13">
         <v>-15</v>
       </c>
-      <c r="O6" s="9">
-        <v>10</v>
-      </c>
-      <c r="P6" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q6" s="9">
+      <c r="O6" s="10">
+        <v>10</v>
+      </c>
+      <c r="P6" s="10">
+        <v>-15</v>
+      </c>
+      <c r="Q6" s="10">
         <v>-10</v>
       </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="10">
+      <c r="R6" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S6">
+        <v>-15</v>
+      </c>
+      <c r="T6" s="9">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1175,23 +1205,28 @@
       <c r="N7" s="13">
         <v>10</v>
       </c>
-      <c r="O7" s="9">
-        <v>10</v>
-      </c>
-      <c r="P7" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="9">
+      <c r="O7" s="10">
+        <v>10</v>
+      </c>
+      <c r="P7" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="10">
         <v>15</v>
       </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="10">
+      <c r="R7" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1233,23 +1268,28 @@
       <c r="N8" s="13">
         <v>10</v>
       </c>
-      <c r="O8" s="9">
-        <v>10</v>
-      </c>
-      <c r="P8" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="9">
+      <c r="O8" s="10">
+        <v>10</v>
+      </c>
+      <c r="P8" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="10">
         <v>15</v>
       </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="10">
+      <c r="R8" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1291,23 +1331,28 @@
       <c r="N9" s="13">
         <v>0</v>
       </c>
-      <c r="O9" s="9">
-        <v>10</v>
-      </c>
-      <c r="P9" s="9">
+      <c r="O9" s="10">
+        <v>10</v>
+      </c>
+      <c r="P9" s="10">
         <v>0</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="10">
         <v>15</v>
       </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="10">
+      <c r="R9" s="10">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>-15</v>
+      </c>
+      <c r="T9" s="9">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1349,23 +1394,28 @@
       <c r="N10" s="13">
         <v>10</v>
       </c>
-      <c r="O10" s="9">
-        <v>10</v>
-      </c>
-      <c r="P10" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="9">
+      <c r="O10" s="10">
+        <v>10</v>
+      </c>
+      <c r="P10" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="10">
         <v>15</v>
       </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="10">
-        <f t="shared" ref="S10:S19" si="1">SUM(K10:N10)</f>
+      <c r="R10" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S10">
+        <v>-15</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" ref="T10:T19" si="1">SUM(K10:N10)</f>
         <v>45</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1407,23 +1457,28 @@
       <c r="N11" s="13">
         <v>10</v>
       </c>
-      <c r="O11" s="9">
-        <v>10</v>
-      </c>
-      <c r="P11" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q11" s="9">
+      <c r="O11" s="10">
+        <v>10</v>
+      </c>
+      <c r="P11" s="10">
+        <v>-15</v>
+      </c>
+      <c r="Q11" s="10">
         <v>15</v>
       </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="10">
+      <c r="R11" s="10">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>-15</v>
+      </c>
+      <c r="T11" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1465,23 +1520,28 @@
       <c r="N12" s="13">
         <v>10</v>
       </c>
-      <c r="O12" s="9">
-        <v>10</v>
-      </c>
-      <c r="P12" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q12" s="9">
+      <c r="O12" s="10">
+        <v>10</v>
+      </c>
+      <c r="P12" s="10">
+        <v>-15</v>
+      </c>
+      <c r="Q12" s="10">
         <v>15</v>
       </c>
-      <c r="R12" s="9"/>
-      <c r="S12" s="10">
+      <c r="R12" s="10">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>-15</v>
+      </c>
+      <c r="T12" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1523,23 +1583,28 @@
       <c r="N13" s="13">
         <v>10</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="10">
         <v>0</v>
       </c>
-      <c r="P13" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q13" s="9">
+      <c r="P13" s="10">
+        <v>-15</v>
+      </c>
+      <c r="Q13" s="10">
         <v>-10</v>
       </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="10">
+      <c r="R13" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S13">
+        <v>-15</v>
+      </c>
+      <c r="T13" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1581,23 +1646,28 @@
       <c r="N14" s="13">
         <v>10</v>
       </c>
-      <c r="O14" s="9">
-        <v>-15</v>
-      </c>
-      <c r="P14" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q14" s="9">
+      <c r="O14" s="10">
+        <v>-15</v>
+      </c>
+      <c r="P14" s="10">
+        <v>-15</v>
+      </c>
+      <c r="Q14" s="10">
         <v>15</v>
       </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="10">
+      <c r="R14" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S14">
+        <v>-15</v>
+      </c>
+      <c r="T14" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -1639,23 +1709,28 @@
       <c r="N15" s="13">
         <v>-15</v>
       </c>
-      <c r="O15" s="9">
-        <v>-15</v>
-      </c>
-      <c r="P15" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q15" s="9">
+      <c r="O15" s="10">
+        <v>-15</v>
+      </c>
+      <c r="P15" s="10">
+        <v>-15</v>
+      </c>
+      <c r="Q15" s="10">
         <v>-10</v>
       </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="10">
+      <c r="R15" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S15">
+        <v>-15</v>
+      </c>
+      <c r="T15" s="9">
         <f t="shared" si="1"/>
         <v>-55</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1697,23 +1772,28 @@
       <c r="N16" s="13">
         <v>10</v>
       </c>
-      <c r="O16" s="9">
-        <v>10</v>
-      </c>
-      <c r="P16" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="9">
+      <c r="O16" s="10">
+        <v>10</v>
+      </c>
+      <c r="P16" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="10">
         <v>15</v>
       </c>
-      <c r="R16" s="9"/>
-      <c r="S16" s="10">
+      <c r="R16" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1755,23 +1835,28 @@
       <c r="N17" s="13">
         <v>10</v>
       </c>
-      <c r="O17" s="9">
-        <v>10</v>
-      </c>
-      <c r="P17" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="9">
+      <c r="O17" s="10">
+        <v>10</v>
+      </c>
+      <c r="P17" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="10">
         <v>-10</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="10">
+      <c r="R17" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S17">
+        <v>-15</v>
+      </c>
+      <c r="T17" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -1813,23 +1898,28 @@
       <c r="N18" s="13">
         <v>10</v>
       </c>
-      <c r="O18" s="9">
-        <v>10</v>
-      </c>
-      <c r="P18" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="9">
+      <c r="O18" s="10">
+        <v>10</v>
+      </c>
+      <c r="P18" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="10">
         <v>15</v>
       </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="10">
+      <c r="R18" s="10">
+        <v>-15</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+      <c r="T18" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1871,17 +1961,22 @@
       <c r="N19" s="13">
         <v>-15</v>
       </c>
-      <c r="O19" s="9">
-        <v>10</v>
-      </c>
-      <c r="P19" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q19" s="9">
+      <c r="O19" s="10">
+        <v>10</v>
+      </c>
+      <c r="P19" s="10">
+        <v>-15</v>
+      </c>
+      <c r="Q19" s="10">
         <v>-10</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="10">
+      <c r="R19" s="10">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>-15</v>
+      </c>
+      <c r="T19" s="9">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
@@ -1895,7 +1990,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{00BC00E6-000F-4BFF-89AB-009100D100D6}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{0006001B-0009-4CF1-9893-00C10084004D}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1912,7 +2007,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{000A0086-001C-4E9E-85BF-000E00A600D6}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00F200A0-00A4-4389-B50F-003300FF0051}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1929,7 +2024,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{002B0041-00C6-45B4-AD1E-0069001700E4}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{002100F6-0090-4862-9B00-00FA008A0097}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1946,7 +2041,7 @@
           <xm:sqref>C2:N19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{003900E4-009F-4C91-BED6-001D007D000C}">
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{008C00F4-005B-4522-8AB0-00D2001100FB}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1954,10 +2049,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S2:S19</xm:sqref>
+          <xm:sqref>T2:T19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{00C200BE-000C-4AE9-8B2C-00E800C10081}">
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{00730004-00B7-4863-AD6D-00CE0063000C}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1965,10 +2060,10 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S2:S19</xm:sqref>
+          <xm:sqref>T2:T19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00490026-00C6-4753-8818-004E00E30018}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00D800A7-00F8-4234-9C05-00D100B3008F}">
             <xm:f>0</xm:f>
             <x14:dxf>
               <font>
@@ -1976,7 +2071,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S2:S19</xm:sqref>
+          <xm:sqref>T2:T19</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2005,529 +2100,539 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>8</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>8</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10">
         <f t="shared" ref="M2:M19" si="2">SUM(C2:L2)</f>
         <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9">
+      <c r="C3" s="10">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9">
+      <c r="C4" s="10">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9">
+    <row r="11">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9">
+      <c r="D11" s="10">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10">
+        <v>10</v>
+      </c>
+      <c r="G11" s="10">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
         <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9">
+      <c r="C13" s="10">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="10">
+        <v>10</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="10">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9">
-        <v>9</v>
-      </c>
-      <c r="D7" s="9">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10">
+        <v>10</v>
+      </c>
+      <c r="F16" s="10">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="10">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10">
+        <v>13</v>
+      </c>
+      <c r="F17" s="10">
         <v>12</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9">
-        <v>10</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="9">
-        <v>10</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="10">
+        <v>10</v>
+      </c>
+      <c r="D18" s="10">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10">
+        <v>10</v>
+      </c>
+      <c r="F18" s="10">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10">
+        <v>10</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9">
-        <v>10</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="10">
+        <v>10</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="9">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9">
-        <v>10</v>
-      </c>
-      <c r="F11" s="9">
-        <v>10</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9">
-        <v>8</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9">
-        <v>10</v>
-      </c>
-      <c r="E13" s="9">
-        <v>10</v>
-      </c>
-      <c r="F13" s="9">
-        <v>10</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="9">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9">
-        <v>6</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="9">
-        <v>10</v>
-      </c>
-      <c r="D16" s="9">
-        <v>10</v>
-      </c>
-      <c r="E16" s="9">
-        <v>10</v>
-      </c>
-      <c r="F16" s="9">
-        <v>10</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9">
-        <v>10</v>
-      </c>
-      <c r="D17" s="9">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9">
-        <v>13</v>
-      </c>
-      <c r="F17" s="9">
-        <v>12</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="9">
-        <v>10</v>
-      </c>
-      <c r="D18" s="9">
-        <v>10</v>
-      </c>
-      <c r="E18" s="9">
-        <v>10</v>
-      </c>
-      <c r="F18" s="9">
-        <v>10</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9">
-        <v>10</v>
-      </c>
-      <c r="D19" s="9">
-        <v>10</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
     <row r="22">
       <c r="G22" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="G24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,18 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEE7AFA-7151-804F-93EA-D2DBC0317B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость" sheetId="1" r:id="rId4"/>
-    <sheet name="Успеваемость" sheetId="2" r:id="rId5"/>
+    <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -83,59 +104,48 @@
     <t>Ястребков Вадим Андреевич</t>
   </si>
   <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Trig</t>
-  </si>
-  <si>
-    <t>Script</t>
-  </si>
-  <si>
-    <t>ORM</t>
-  </si>
-  <si>
-    <t>Install</t>
-  </si>
-  <si>
     <t>Итог</t>
   </si>
   <si>
-    <t>15-25</t>
+    <t>Доп</t>
   </si>
   <si>
-    <t>25-35</t>
+    <t>Тест (20)</t>
   </si>
   <si>
-    <t>35-40</t>
+    <t>Install (10)</t>
+  </si>
+  <si>
+    <t>Резерв (10)</t>
+  </si>
+  <si>
+    <t>Proc (15)</t>
+  </si>
+  <si>
+    <t>Trig (15)</t>
+  </si>
+  <si>
+    <t>Script (15)</t>
+  </si>
+  <si>
+    <t>ORM (15)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d.m"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -221,129 +231,138 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
       <font>
-        <color rgb="ff9c5700"/>
+        <color rgb="FF006100"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="13"/>
-          <bgColor indexed="14"/>
+          <bgColor indexed="18"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff006100"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -354,61 +373,98 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="ff9c0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="13"/>
-          <bgColor indexed="18"/>
+          <bgColor indexed="14"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff9c5700"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff9c0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff006100"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFDBDBDB"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="ffffeb9c"/>
-      <rgbColor rgb="ff9c5700"/>
-      <rgbColor rgb="ffc6efce"/>
-      <rgbColor rgb="ff006100"/>
-      <rgbColor rgb="ffffc7ce"/>
-      <rgbColor rgb="ff9c0006"/>
+      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FF9C5700"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -534,7 +590,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -543,7 +599,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -552,7 +608,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -626,7 +682,7 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -634,7 +690,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -652,7 +708,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -681,7 +737,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -706,7 +762,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -731,7 +787,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +812,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +837,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -806,7 +862,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -831,7 +887,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -856,7 +912,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -881,7 +937,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,9 +950,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -911,7 +973,7 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -919,7 +981,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -937,7 +999,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +1024,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -987,7 +1049,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1012,7 +1074,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1099,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1062,7 +1124,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1087,7 +1149,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1174,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1199,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1224,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,9 +1237,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1191,7 +1259,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1209,7 +1277,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1306,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,7 +1331,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,7 +1356,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1381,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1338,7 +1406,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1363,7 +1431,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1388,7 +1456,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1413,7 +1481,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1438,7 +1506,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1451,38 +1519,46 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C1" xSplit="2" ySplit="0" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.17188" style="1" customWidth="1"/>
-    <col min="19" max="20" width="8.85156" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="18" width="9.1640625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="8.83203125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3">
@@ -1540,35 +1616,35 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s" s="9">
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="10">
@@ -1602,35 +1678,35 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
+    <row r="3" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s" s="9">
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="10">
@@ -1664,35 +1740,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s" s="9">
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s" s="9">
+      <c r="J4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="10">
@@ -1726,35 +1802,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s" s="9">
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="10">
@@ -1788,35 +1864,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s" s="9">
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="10">
@@ -1850,35 +1926,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s" s="9">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="10">
@@ -1912,35 +1988,35 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s" s="9">
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="10">
@@ -1974,35 +2050,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s" s="9">
+      <c r="C9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="10">
@@ -2036,35 +2112,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s" s="9">
+      <c r="C10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J10" t="s" s="9">
+      <c r="J10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="10">
@@ -2098,35 +2174,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
+    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s" s="9">
+      <c r="C11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K11" s="10">
@@ -2160,35 +2236,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
+    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s" s="9">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J12" t="s" s="9">
+      <c r="J12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="10">
@@ -2222,35 +2298,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
+    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s" s="9">
+      <c r="C13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="10">
@@ -2284,35 +2360,35 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
+    <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="8">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J14" t="s" s="9">
+      <c r="C14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="10">
@@ -2346,35 +2422,35 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
+    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J15" t="s" s="9">
+      <c r="C15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K15" s="10">
@@ -2408,35 +2484,35 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="16" ht="13.55" customHeight="1">
+    <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="8">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J16" t="s" s="9">
+      <c r="C16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K16" s="10">
@@ -2470,35 +2546,35 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
+    <row r="17" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="8">
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J17" t="s" s="9">
+      <c r="C17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="10">
@@ -2532,35 +2608,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
+    <row r="18" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="8">
+      <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="H18" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="J18" t="s" s="9">
+      <c r="C18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="10">
@@ -2594,35 +2670,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
+    <row r="19" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="8">
+      <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="H19" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="I19" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="J19" t="s" s="9">
+      <c r="C19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K19" s="10">
@@ -2658,29 +2734,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T19">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.700787" right="0.700787" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2688,630 +2764,645 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.35156" style="13" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="13" customWidth="1"/>
-    <col min="3" max="13" width="9.17188" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="8.85156" style="13" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="14">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="14">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s" s="9">
+    </row>
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18">
+        <v>12</v>
+      </c>
+      <c r="D2" s="18">
+        <v>12</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18">
+        <f>SUM(C2:J2)</f>
         <v>24</v>
       </c>
-      <c r="E1" t="s" s="9">
+    </row>
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18">
+        <v>15</v>
+      </c>
+      <c r="D3" s="18">
+        <v>15</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18">
+        <f>SUM(C3:J3)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18">
+        <v>15</v>
+      </c>
+      <c r="D4" s="18">
+        <v>15</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18">
+        <v>15</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18">
+        <f>SUM(C4:J4)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="18">
+        <v>13</v>
+      </c>
+      <c r="D5" s="18">
+        <v>15</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18">
+        <f>SUM(C5:J5)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18">
+        <v>12</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18">
+        <f>SUM(C6:J6)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="18">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18">
+        <v>11</v>
+      </c>
+      <c r="E7" s="18">
+        <v>15</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18">
+        <f>SUM(C7:J7)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18">
+        <v>15</v>
+      </c>
+      <c r="D8" s="18">
+        <v>15</v>
+      </c>
+      <c r="E8" s="18">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17">
+        <v>20</v>
+      </c>
+      <c r="K8" s="18">
+        <f>SUM(C8:J8)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="18">
+        <v>15</v>
+      </c>
+      <c r="D9" s="18">
+        <v>12</v>
+      </c>
+      <c r="E9" s="18">
+        <v>15</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18">
+        <v>10</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18">
+        <f>SUM(C9:J9)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="18">
+        <v>15</v>
+      </c>
+      <c r="D10" s="18">
+        <v>15</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18">
+        <f>SUM(C10:J10)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="18">
+        <v>13</v>
+      </c>
+      <c r="D11" s="18">
+        <v>12</v>
+      </c>
+      <c r="E11" s="18">
+        <v>15</v>
+      </c>
+      <c r="F11" s="18">
+        <v>15</v>
+      </c>
+      <c r="G11" s="18">
+        <v>10</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18">
+        <f>SUM(C11:J11)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="18">
+        <v>13</v>
+      </c>
+      <c r="D12" s="18">
+        <v>12</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18">
+        <f>SUM(C12:J12)</f>
         <v>25</v>
       </c>
-      <c r="F1" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" t="s" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="17">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="10">
-        <f>SUM(C2:L2)</f>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="17">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10">
-        <v>10</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="10">
-        <f>SUM(C3:L3)</f>
+      <c r="C13" s="18">
+        <v>15</v>
+      </c>
+      <c r="D13" s="18">
+        <v>15</v>
+      </c>
+      <c r="E13" s="18">
+        <v>15</v>
+      </c>
+      <c r="F13" s="18">
+        <v>15</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18">
+        <f>SUM(C13:J13)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
+        <v>15</v>
+      </c>
+      <c r="D14" s="18">
+        <v>10</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18">
+        <f>SUM(C14:J14)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18">
+        <f>SUM(C15:J15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="18">
+        <v>15</v>
+      </c>
+      <c r="D16" s="18">
+        <v>15</v>
+      </c>
+      <c r="E16" s="18">
+        <v>15</v>
+      </c>
+      <c r="F16" s="18">
+        <v>15</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18">
+        <f>SUM(C16:J16)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="17">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="10">
-        <v>10</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="10">
-        <f>SUM(C4:L4)</f>
+      <c r="C17" s="21">
+        <v>15</v>
+      </c>
+      <c r="D17" s="21">
+        <v>15</v>
+      </c>
+      <c r="E17" s="21">
+        <v>15</v>
+      </c>
+      <c r="F17" s="21">
+        <v>15</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22">
+        <v>23</v>
+      </c>
+      <c r="K17" s="21">
+        <f>SUM(C17:J17)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="29">
+        <v>15</v>
+      </c>
+      <c r="D18" s="29">
+        <v>15</v>
+      </c>
+      <c r="E18" s="29">
+        <v>15</v>
+      </c>
+      <c r="F18" s="29">
+        <v>15</v>
+      </c>
+      <c r="G18" s="29">
+        <v>10</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="29">
+        <f>SUM(C18:J18)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="29">
+        <v>15</v>
+      </c>
+      <c r="D19" s="29">
+        <v>15</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="29">
+        <f>SUM(C19:J19)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="17">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10">
-        <v>10</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="10">
-        <f>SUM(C5:L5)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="17">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10">
-        <v>9</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="10">
-        <f>SUM(C6:L6)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="17">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10">
-        <v>10</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="10">
-        <f>SUM(C7:L7)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="17">
-        <v>11</v>
-      </c>
-      <c r="C8" s="10">
-        <v>10</v>
-      </c>
-      <c r="D8" s="10">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10">
-        <v>10</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="10">
-        <f>SUM(C8:L8)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="17">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
-        <v>10</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="10">
-        <v>10</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="10">
-        <f>SUM(C9:L9)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="17">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10">
-        <v>10</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="10">
-        <f>SUM(C10:L10)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="17">
-        <v>14</v>
-      </c>
-      <c r="C11" s="10">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10">
-        <v>10</v>
-      </c>
-      <c r="F11" s="10">
-        <v>10</v>
-      </c>
-      <c r="G11" s="10">
-        <v>10</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="10">
-        <f>SUM(C11:L11)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="C12" s="10">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10">
-        <v>8</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="10">
-        <f>SUM(C12:L12)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="16">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="C13" s="10">
-        <v>10</v>
-      </c>
-      <c r="D13" s="10">
-        <v>10</v>
-      </c>
-      <c r="E13" s="10">
-        <v>10</v>
-      </c>
-      <c r="F13" s="10">
-        <v>10</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="10">
-        <f>SUM(C13:L13)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="16">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="C14" s="10">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10">
-        <v>6</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="10">
-        <f>SUM(C14:L14)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="16">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="10">
-        <f>SUM(C15:L15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="17">
-        <v>19</v>
-      </c>
-      <c r="C16" s="10">
-        <v>10</v>
-      </c>
-      <c r="D16" s="10">
-        <v>10</v>
-      </c>
-      <c r="E16" s="10">
-        <v>10</v>
-      </c>
-      <c r="F16" s="10">
-        <v>10</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="10">
-        <f>SUM(C16:L16)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="16">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="17">
-        <v>20</v>
-      </c>
-      <c r="C17" s="10">
-        <v>10</v>
-      </c>
-      <c r="D17" s="10">
-        <v>10</v>
-      </c>
-      <c r="E17" s="10">
-        <v>13</v>
-      </c>
-      <c r="F17" s="10">
-        <v>12</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="10">
-        <f>SUM(C17:L17)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="16">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="C18" s="10">
-        <v>10</v>
-      </c>
-      <c r="D18" s="10">
-        <v>10</v>
-      </c>
-      <c r="E18" s="10">
-        <v>10</v>
-      </c>
-      <c r="F18" s="10">
-        <v>10</v>
-      </c>
-      <c r="G18" s="10">
-        <v>10</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="10">
-        <f>SUM(C18:L18)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="16">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s" s="17">
-        <v>22</v>
-      </c>
-      <c r="C19" s="10">
-        <v>10</v>
-      </c>
-      <c r="D19" s="10">
-        <v>10</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="10">
-        <f>SUM(C19:L19)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" t="s" s="22">
-        <v>29</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" t="s" s="22">
-        <v>30</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" t="s" s="22">
-        <v>31</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+    <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="25"/>
+    </row>
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+    </row>
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEE7AFA-7151-804F-93EA-D2DBC0317B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7351FE-C4C4-C44F-A617-048ABE665A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -130,6 +130,12 @@
   <si>
     <t>ORM (15)</t>
   </si>
+  <si>
+    <t>Рейтинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -216,21 +222,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -257,11 +248,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,9 +276,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,9 +283,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -301,6 +299,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,24 +327,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1538,11 +1544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="185" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1560,7 @@
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1612,1123 +1618,1295 @@
       <c r="S1" s="5">
         <v>45015</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="29">
         <v>45022</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="U1" s="31">
+        <v>45029</v>
+      </c>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="10">
-        <v>10</v>
-      </c>
-      <c r="L2" s="10">
-        <v>10</v>
-      </c>
-      <c r="M2" s="10">
-        <v>15</v>
-      </c>
-      <c r="N2" s="10">
-        <v>10</v>
-      </c>
-      <c r="O2" s="10">
-        <v>10</v>
-      </c>
-      <c r="P2" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="10">
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="9">
+        <v>10</v>
+      </c>
+      <c r="L2" s="9">
+        <v>10</v>
+      </c>
+      <c r="M2" s="9">
+        <v>15</v>
+      </c>
+      <c r="N2" s="9">
+        <v>10</v>
+      </c>
+      <c r="O2" s="9">
+        <v>10</v>
+      </c>
+      <c r="P2" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="9">
         <v>-10</v>
       </c>
-      <c r="R2" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S2" s="11">
-        <v>-15</v>
-      </c>
-      <c r="T2" s="12">
+      <c r="R2" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S2" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T2" s="30">
         <v>-10</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="U2" s="32">
+        <v>10</v>
+      </c>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32">
+        <f>SUM(K2:W2)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="10">
-        <v>10</v>
-      </c>
-      <c r="L3" s="10">
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9">
+        <v>10</v>
+      </c>
+      <c r="L3" s="9">
         <v>0</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>-10</v>
       </c>
-      <c r="N3" s="10">
-        <v>10</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-15</v>
-      </c>
-      <c r="P3" s="10">
-        <v>-15</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>15</v>
-      </c>
-      <c r="R3" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S3" s="11">
-        <v>-15</v>
-      </c>
-      <c r="T3" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="N3" s="9">
+        <v>10</v>
+      </c>
+      <c r="O3" s="9">
+        <v>-15</v>
+      </c>
+      <c r="P3" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>15</v>
+      </c>
+      <c r="R3" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S3" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T3" s="30">
+        <v>15</v>
+      </c>
+      <c r="U3" s="32">
+        <v>0</v>
+      </c>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32">
+        <f t="shared" ref="X3:X19" si="0">SUM(K3:W3)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="10">
-        <v>10</v>
-      </c>
-      <c r="L4" s="10">
+      <c r="J4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="9">
+        <v>10</v>
+      </c>
+      <c r="L4" s="9">
         <v>0</v>
       </c>
-      <c r="M4" s="10">
-        <v>15</v>
-      </c>
-      <c r="N4" s="10">
-        <v>10</v>
-      </c>
-      <c r="O4" s="10">
-        <v>10</v>
-      </c>
-      <c r="P4" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>15</v>
-      </c>
-      <c r="R4" s="10">
+      <c r="M4" s="9">
+        <v>15</v>
+      </c>
+      <c r="N4" s="9">
+        <v>10</v>
+      </c>
+      <c r="O4" s="9">
+        <v>10</v>
+      </c>
+      <c r="P4" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>15</v>
+      </c>
+      <c r="R4" s="9">
         <v>0</v>
       </c>
-      <c r="S4" s="11">
-        <v>10</v>
-      </c>
-      <c r="T4" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="S4" s="10">
+        <v>10</v>
+      </c>
+      <c r="T4" s="30">
+        <v>15</v>
+      </c>
+      <c r="U4" s="32">
+        <v>0</v>
+      </c>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>0</v>
       </c>
-      <c r="L5" s="10">
-        <v>-15</v>
-      </c>
-      <c r="M5" s="10">
+      <c r="L5" s="9">
+        <v>-15</v>
+      </c>
+      <c r="M5" s="9">
         <v>-10</v>
       </c>
-      <c r="N5" s="10">
-        <v>10</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-15</v>
-      </c>
-      <c r="P5" s="10">
-        <v>-15</v>
-      </c>
-      <c r="Q5" s="10">
+      <c r="N5" s="9">
+        <v>10</v>
+      </c>
+      <c r="O5" s="9">
+        <v>-15</v>
+      </c>
+      <c r="P5" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q5" s="9">
         <v>-10</v>
       </c>
-      <c r="R5" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S5" s="11">
-        <v>-15</v>
-      </c>
-      <c r="T5" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="R5" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S5" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T5" s="30">
+        <v>15</v>
+      </c>
+      <c r="U5" s="32">
+        <v>10</v>
+      </c>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32">
+        <f t="shared" si="0"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="10">
-        <v>10</v>
-      </c>
-      <c r="L6" s="10">
-        <v>10</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>10</v>
+      </c>
+      <c r="L6" s="9">
+        <v>10</v>
+      </c>
+      <c r="M6" s="9">
         <v>-10</v>
       </c>
-      <c r="N6" s="10">
-        <v>-15</v>
-      </c>
-      <c r="O6" s="10">
-        <v>10</v>
-      </c>
-      <c r="P6" s="10">
-        <v>-15</v>
-      </c>
-      <c r="Q6" s="10">
+      <c r="N6" s="9">
+        <v>-15</v>
+      </c>
+      <c r="O6" s="9">
+        <v>10</v>
+      </c>
+      <c r="P6" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q6" s="9">
         <v>-10</v>
       </c>
-      <c r="R6" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S6" s="11">
-        <v>-15</v>
-      </c>
-      <c r="T6" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="R6" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S6" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T6" s="30">
+        <v>15</v>
+      </c>
+      <c r="U6" s="32">
+        <v>10</v>
+      </c>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="10">
-        <v>10</v>
-      </c>
-      <c r="L7" s="10">
-        <v>10</v>
-      </c>
-      <c r="M7" s="10">
-        <v>15</v>
-      </c>
-      <c r="N7" s="10">
-        <v>10</v>
-      </c>
-      <c r="O7" s="10">
-        <v>10</v>
-      </c>
-      <c r="P7" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>15</v>
-      </c>
-      <c r="R7" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S7" s="11">
-        <v>10</v>
-      </c>
-      <c r="T7" s="12">
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9">
+        <v>10</v>
+      </c>
+      <c r="L7" s="9">
+        <v>10</v>
+      </c>
+      <c r="M7" s="9">
+        <v>15</v>
+      </c>
+      <c r="N7" s="9">
+        <v>10</v>
+      </c>
+      <c r="O7" s="9">
+        <v>10</v>
+      </c>
+      <c r="P7" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>15</v>
+      </c>
+      <c r="R7" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S7" s="10">
+        <v>10</v>
+      </c>
+      <c r="T7" s="30">
         <v>-10</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="U7" s="32">
+        <v>10</v>
+      </c>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="10">
-        <v>-15</v>
-      </c>
-      <c r="L8" s="10">
-        <v>10</v>
-      </c>
-      <c r="M8" s="10">
-        <v>15</v>
-      </c>
-      <c r="N8" s="10">
-        <v>10</v>
-      </c>
-      <c r="O8" s="10">
-        <v>10</v>
-      </c>
-      <c r="P8" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>15</v>
-      </c>
-      <c r="R8" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S8" s="11">
-        <v>10</v>
-      </c>
-      <c r="T8" s="12">
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9">
+        <v>-15</v>
+      </c>
+      <c r="L8" s="9">
+        <v>10</v>
+      </c>
+      <c r="M8" s="9">
+        <v>15</v>
+      </c>
+      <c r="N8" s="9">
+        <v>10</v>
+      </c>
+      <c r="O8" s="9">
+        <v>10</v>
+      </c>
+      <c r="P8" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>15</v>
+      </c>
+      <c r="R8" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S8" s="10">
+        <v>10</v>
+      </c>
+      <c r="T8" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="U8" s="32">
+        <v>-15</v>
+      </c>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="10">
-        <v>-15</v>
-      </c>
-      <c r="L9" s="10">
-        <v>10</v>
-      </c>
-      <c r="M9" s="10">
+      <c r="C9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="9">
+        <v>-15</v>
+      </c>
+      <c r="L9" s="9">
+        <v>10</v>
+      </c>
+      <c r="M9" s="9">
         <v>0</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>0</v>
       </c>
-      <c r="O9" s="10">
-        <v>10</v>
-      </c>
-      <c r="P9" s="10">
+      <c r="O9" s="9">
+        <v>10</v>
+      </c>
+      <c r="P9" s="9">
         <v>0</v>
       </c>
-      <c r="Q9" s="10">
-        <v>15</v>
-      </c>
-      <c r="R9" s="10">
-        <v>10</v>
-      </c>
-      <c r="S9" s="11">
-        <v>-15</v>
-      </c>
-      <c r="T9" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="Q9" s="9">
+        <v>15</v>
+      </c>
+      <c r="R9" s="9">
+        <v>10</v>
+      </c>
+      <c r="S9" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T9" s="30">
+        <v>15</v>
+      </c>
+      <c r="U9" s="32">
+        <v>10</v>
+      </c>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="C10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="10">
-        <v>10</v>
-      </c>
-      <c r="L10" s="10">
-        <v>10</v>
-      </c>
-      <c r="M10" s="10">
-        <v>15</v>
-      </c>
-      <c r="N10" s="10">
-        <v>10</v>
-      </c>
-      <c r="O10" s="10">
-        <v>10</v>
-      </c>
-      <c r="P10" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>15</v>
-      </c>
-      <c r="R10" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S10" s="11">
-        <v>-15</v>
-      </c>
-      <c r="T10" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="J10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="9">
+        <v>10</v>
+      </c>
+      <c r="L10" s="9">
+        <v>10</v>
+      </c>
+      <c r="M10" s="9">
+        <v>15</v>
+      </c>
+      <c r="N10" s="9">
+        <v>10</v>
+      </c>
+      <c r="O10" s="9">
+        <v>10</v>
+      </c>
+      <c r="P10" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>15</v>
+      </c>
+      <c r="R10" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S10" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T10" s="30">
+        <v>15</v>
+      </c>
+      <c r="U10" s="32">
+        <v>10</v>
+      </c>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="10">
-        <v>-15</v>
-      </c>
-      <c r="L11" s="10">
-        <v>10</v>
-      </c>
-      <c r="M11" s="10">
-        <v>15</v>
-      </c>
-      <c r="N11" s="10">
-        <v>10</v>
-      </c>
-      <c r="O11" s="10">
-        <v>10</v>
-      </c>
-      <c r="P11" s="10">
-        <v>-15</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>15</v>
-      </c>
-      <c r="R11" s="10">
-        <v>10</v>
-      </c>
-      <c r="S11" s="11">
-        <v>-15</v>
-      </c>
-      <c r="T11" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="C11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="9">
+        <v>-15</v>
+      </c>
+      <c r="L11" s="9">
+        <v>10</v>
+      </c>
+      <c r="M11" s="9">
+        <v>15</v>
+      </c>
+      <c r="N11" s="9">
+        <v>10</v>
+      </c>
+      <c r="O11" s="9">
+        <v>10</v>
+      </c>
+      <c r="P11" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>15</v>
+      </c>
+      <c r="R11" s="9">
+        <v>10</v>
+      </c>
+      <c r="S11" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T11" s="30">
+        <v>15</v>
+      </c>
+      <c r="U11" s="32">
+        <v>10</v>
+      </c>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>0</v>
       </c>
-      <c r="L12" s="10">
-        <v>10</v>
-      </c>
-      <c r="M12" s="10">
+      <c r="L12" s="9">
+        <v>10</v>
+      </c>
+      <c r="M12" s="9">
         <v>-10</v>
       </c>
-      <c r="N12" s="10">
-        <v>10</v>
-      </c>
-      <c r="O12" s="10">
-        <v>10</v>
-      </c>
-      <c r="P12" s="10">
-        <v>-15</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>15</v>
-      </c>
-      <c r="R12" s="10">
-        <v>10</v>
-      </c>
-      <c r="S12" s="11">
-        <v>-15</v>
-      </c>
-      <c r="T12" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="N12" s="9">
+        <v>10</v>
+      </c>
+      <c r="O12" s="9">
+        <v>10</v>
+      </c>
+      <c r="P12" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>15</v>
+      </c>
+      <c r="R12" s="9">
+        <v>10</v>
+      </c>
+      <c r="S12" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T12" s="30">
+        <v>15</v>
+      </c>
+      <c r="U12" s="32">
+        <v>10</v>
+      </c>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" s="32">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="10">
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="9">
         <v>0</v>
       </c>
-      <c r="L13" s="10">
-        <v>10</v>
-      </c>
-      <c r="M13" s="10">
+      <c r="L13" s="9">
+        <v>10</v>
+      </c>
+      <c r="M13" s="9">
         <v>-10</v>
       </c>
-      <c r="N13" s="10">
-        <v>10</v>
-      </c>
-      <c r="O13" s="10">
+      <c r="N13" s="9">
+        <v>10</v>
+      </c>
+      <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="10">
-        <v>-15</v>
-      </c>
-      <c r="Q13" s="10">
+      <c r="P13" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q13" s="9">
         <v>-10</v>
       </c>
-      <c r="R13" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S13" s="11">
-        <v>-15</v>
-      </c>
-      <c r="T13" s="12">
+      <c r="R13" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S13" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T13" s="30">
         <v>-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="U13" s="32">
+        <v>-15</v>
+      </c>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32">
+        <f t="shared" si="0"/>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="10">
-        <v>10</v>
-      </c>
-      <c r="L14" s="10">
-        <v>10</v>
-      </c>
-      <c r="M14" s="10">
-        <v>15</v>
-      </c>
-      <c r="N14" s="10">
-        <v>10</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-15</v>
-      </c>
-      <c r="P14" s="10">
-        <v>-15</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>15</v>
-      </c>
-      <c r="R14" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S14" s="11">
-        <v>-15</v>
-      </c>
-      <c r="T14" s="12">
+      <c r="C14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="9">
+        <v>10</v>
+      </c>
+      <c r="L14" s="9">
+        <v>10</v>
+      </c>
+      <c r="M14" s="9">
+        <v>15</v>
+      </c>
+      <c r="N14" s="9">
+        <v>10</v>
+      </c>
+      <c r="O14" s="9">
+        <v>-15</v>
+      </c>
+      <c r="P14" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>15</v>
+      </c>
+      <c r="R14" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S14" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T14" s="30">
         <v>-10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="U14" s="32">
+        <v>10</v>
+      </c>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="10">
-        <v>-15</v>
-      </c>
-      <c r="L15" s="10">
-        <v>-15</v>
-      </c>
-      <c r="M15" s="10">
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="9">
+        <v>-15</v>
+      </c>
+      <c r="L15" s="9">
+        <v>-15</v>
+      </c>
+      <c r="M15" s="9">
         <v>-10</v>
       </c>
-      <c r="N15" s="10">
-        <v>-15</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-15</v>
-      </c>
-      <c r="P15" s="10">
-        <v>-15</v>
-      </c>
-      <c r="Q15" s="10">
+      <c r="N15" s="9">
+        <v>-15</v>
+      </c>
+      <c r="O15" s="9">
+        <v>-15</v>
+      </c>
+      <c r="P15" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q15" s="9">
         <v>-10</v>
       </c>
-      <c r="R15" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S15" s="11">
-        <v>-15</v>
-      </c>
-      <c r="T15" s="12">
+      <c r="R15" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S15" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T15" s="30">
         <v>-10</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="U15" s="32">
+        <v>-15</v>
+      </c>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="C16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="10">
-        <v>10</v>
-      </c>
-      <c r="L16" s="10">
-        <v>10</v>
-      </c>
-      <c r="M16" s="10">
-        <v>15</v>
-      </c>
-      <c r="N16" s="10">
-        <v>10</v>
-      </c>
-      <c r="O16" s="10">
-        <v>10</v>
-      </c>
-      <c r="P16" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>15</v>
-      </c>
-      <c r="R16" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S16" s="11">
-        <v>10</v>
-      </c>
-      <c r="T16" s="12">
+      <c r="K16" s="9">
+        <v>10</v>
+      </c>
+      <c r="L16" s="9">
+        <v>10</v>
+      </c>
+      <c r="M16" s="9">
+        <v>15</v>
+      </c>
+      <c r="N16" s="9">
+        <v>10</v>
+      </c>
+      <c r="O16" s="9">
+        <v>10</v>
+      </c>
+      <c r="P16" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>15</v>
+      </c>
+      <c r="R16" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S16" s="10">
+        <v>10</v>
+      </c>
+      <c r="T16" s="30">
         <v>-10</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="U16" s="32">
+        <v>10</v>
+      </c>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="10">
-        <v>10</v>
-      </c>
-      <c r="L17" s="10">
-        <v>10</v>
-      </c>
-      <c r="M17" s="10">
-        <v>15</v>
-      </c>
-      <c r="N17" s="10">
-        <v>10</v>
-      </c>
-      <c r="O17" s="10">
-        <v>10</v>
-      </c>
-      <c r="P17" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="10">
+      <c r="C17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="9">
+        <v>10</v>
+      </c>
+      <c r="L17" s="9">
+        <v>10</v>
+      </c>
+      <c r="M17" s="9">
+        <v>15</v>
+      </c>
+      <c r="N17" s="9">
+        <v>10</v>
+      </c>
+      <c r="O17" s="9">
+        <v>10</v>
+      </c>
+      <c r="P17" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="9">
         <v>-10</v>
       </c>
-      <c r="R17" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S17" s="11">
-        <v>-15</v>
-      </c>
-      <c r="T17" s="12">
+      <c r="R17" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S17" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T17" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="U17" s="32">
+        <v>10</v>
+      </c>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="10">
-        <v>10</v>
-      </c>
-      <c r="L18" s="10">
-        <v>10</v>
-      </c>
-      <c r="M18" s="10">
-        <v>15</v>
-      </c>
-      <c r="N18" s="10">
-        <v>10</v>
-      </c>
-      <c r="O18" s="10">
-        <v>10</v>
-      </c>
-      <c r="P18" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>15</v>
-      </c>
-      <c r="R18" s="10">
-        <v>-15</v>
-      </c>
-      <c r="S18" s="11">
-        <v>10</v>
-      </c>
-      <c r="T18" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="C18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="9">
+        <v>10</v>
+      </c>
+      <c r="L18" s="9">
+        <v>10</v>
+      </c>
+      <c r="M18" s="9">
+        <v>15</v>
+      </c>
+      <c r="N18" s="9">
+        <v>10</v>
+      </c>
+      <c r="O18" s="9">
+        <v>10</v>
+      </c>
+      <c r="P18" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>15</v>
+      </c>
+      <c r="R18" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S18" s="10">
+        <v>10</v>
+      </c>
+      <c r="T18" s="30">
+        <v>15</v>
+      </c>
+      <c r="U18" s="32">
+        <v>10</v>
+      </c>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="10">
-        <v>10</v>
-      </c>
-      <c r="L19" s="10">
-        <v>10</v>
-      </c>
-      <c r="M19" s="10">
+      <c r="C19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="9">
+        <v>10</v>
+      </c>
+      <c r="L19" s="9">
+        <v>10</v>
+      </c>
+      <c r="M19" s="9">
         <v>-10</v>
       </c>
-      <c r="N19" s="10">
-        <v>-15</v>
-      </c>
-      <c r="O19" s="10">
-        <v>10</v>
-      </c>
-      <c r="P19" s="10">
-        <v>-15</v>
-      </c>
-      <c r="Q19" s="10">
+      <c r="N19" s="9">
+        <v>-15</v>
+      </c>
+      <c r="O19" s="9">
+        <v>10</v>
+      </c>
+      <c r="P19" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q19" s="9">
         <v>-10</v>
       </c>
-      <c r="R19" s="10">
-        <v>10</v>
-      </c>
-      <c r="S19" s="11">
+      <c r="R19" s="9">
+        <v>10</v>
+      </c>
+      <c r="S19" s="10">
         <v>0</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="30">
+        <v>15</v>
+      </c>
+      <c r="U19" s="32">
+        <v>10</v>
+      </c>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2767,8 +2945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" zoomScale="159" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2790,615 +2968,619 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="16">
         <v>12</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="16">
         <v>12</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18">
-        <f>SUM(C2:J2)</f>
-        <v>24</v>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16">
+        <f t="shared" ref="K2:K19" si="0">SUM(C2:J2)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18">
-        <v>15</v>
-      </c>
-      <c r="D3" s="18">
-        <v>15</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18">
-        <f>SUM(C3:J3)</f>
+      <c r="C3" s="16">
+        <v>15</v>
+      </c>
+      <c r="D3" s="16">
+        <v>15</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18">
-        <v>15</v>
-      </c>
-      <c r="D4" s="18">
-        <v>15</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18">
-        <v>15</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18">
-        <f>SUM(C4:J4)</f>
+      <c r="C4" s="16">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16">
+        <v>15</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16">
+        <v>15</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>13</v>
       </c>
-      <c r="D5" s="18">
-        <v>15</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18">
-        <f>SUM(C5:J5)</f>
+      <c r="D5" s="16">
+        <v>15</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>12</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18">
-        <f>SUM(C6:J6)</f>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16">
         <v>12</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>11</v>
       </c>
-      <c r="E7" s="18">
-        <v>15</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18">
-        <f>SUM(C7:J7)</f>
+      <c r="E7" s="16">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18">
-        <v>15</v>
-      </c>
-      <c r="D8" s="18">
-        <v>15</v>
-      </c>
-      <c r="E8" s="18">
-        <v>15</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17">
+      <c r="C8" s="16">
+        <v>15</v>
+      </c>
+      <c r="D8" s="16">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16">
+        <v>15</v>
+      </c>
+      <c r="F8" s="15">
+        <v>15</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15">
         <v>20</v>
       </c>
-      <c r="K8" s="18">
-        <f>SUM(C8:J8)</f>
+      <c r="K8" s="16">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16">
+        <v>12</v>
+      </c>
+      <c r="E9" s="16">
+        <v>15</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16">
+        <v>10</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="16">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16">
+        <v>15</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16">
+        <v>13</v>
+      </c>
+      <c r="D11" s="16">
+        <v>12</v>
+      </c>
+      <c r="E11" s="16">
+        <v>15</v>
+      </c>
+      <c r="F11" s="16">
+        <v>15</v>
+      </c>
+      <c r="G11" s="16">
+        <v>10</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15" t="s">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="16">
+        <v>13</v>
+      </c>
+      <c r="D12" s="16">
         <v>12</v>
       </c>
-      <c r="C9" s="18">
-        <v>15</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="E9" s="18">
-        <v>15</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18">
-        <v>10</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18">
-        <f>SUM(C9:J9)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="B13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="16">
+        <v>15</v>
+      </c>
+      <c r="D13" s="16">
+        <v>15</v>
+      </c>
+      <c r="E13" s="16">
+        <v>15</v>
+      </c>
+      <c r="F13" s="16">
+        <v>15</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="C10" s="18">
-        <v>15</v>
-      </c>
-      <c r="D10" s="18">
-        <v>15</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18">
-        <f>SUM(C10:J10)</f>
+      <c r="B14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16">
+        <v>10</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="16">
+        <v>15</v>
+      </c>
+      <c r="F16" s="16">
+        <v>15</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="19">
+        <v>15</v>
+      </c>
+      <c r="D17" s="19">
+        <v>15</v>
+      </c>
+      <c r="E17" s="19">
+        <v>15</v>
+      </c>
+      <c r="F17" s="19">
+        <v>15</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20">
+        <v>23</v>
+      </c>
+      <c r="K17" s="19">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
+        <v>17</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="27">
+        <v>15</v>
+      </c>
+      <c r="D18" s="27">
+        <v>15</v>
+      </c>
+      <c r="E18" s="27">
+        <v>15</v>
+      </c>
+      <c r="F18" s="27">
+        <v>15</v>
+      </c>
+      <c r="G18" s="27">
+        <v>10</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="27">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
+        <v>18</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="27">
+        <v>15</v>
+      </c>
+      <c r="D19" s="27">
+        <v>15</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="27">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="18">
-        <v>13</v>
-      </c>
-      <c r="D11" s="18">
-        <v>12</v>
-      </c>
-      <c r="E11" s="18">
-        <v>15</v>
-      </c>
-      <c r="F11" s="18">
-        <v>15</v>
-      </c>
-      <c r="G11" s="18">
-        <v>10</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18">
-        <f>SUM(C11:J11)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="18">
-        <v>13</v>
-      </c>
-      <c r="D12" s="18">
-        <v>12</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18">
-        <f>SUM(C12:J12)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="18">
-        <v>15</v>
-      </c>
-      <c r="D13" s="18">
-        <v>15</v>
-      </c>
-      <c r="E13" s="18">
-        <v>15</v>
-      </c>
-      <c r="F13" s="18">
-        <v>15</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18">
-        <f>SUM(C13:J13)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="18">
-        <v>15</v>
-      </c>
-      <c r="D14" s="18">
-        <v>10</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18">
-        <f>SUM(C14:J14)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18">
-        <f>SUM(C15:J15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="18">
-        <v>15</v>
-      </c>
-      <c r="D16" s="18">
-        <v>15</v>
-      </c>
-      <c r="E16" s="18">
-        <v>15</v>
-      </c>
-      <c r="F16" s="18">
-        <v>15</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18">
-        <f>SUM(C16:J16)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
-        <v>16</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="21">
-        <v>15</v>
-      </c>
-      <c r="D17" s="21">
-        <v>15</v>
-      </c>
-      <c r="E17" s="21">
-        <v>15</v>
-      </c>
-      <c r="F17" s="21">
-        <v>15</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22">
-        <v>23</v>
-      </c>
-      <c r="K17" s="21">
-        <f>SUM(C17:J17)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="29">
-        <v>15</v>
-      </c>
-      <c r="D18" s="29">
-        <v>15</v>
-      </c>
-      <c r="E18" s="29">
-        <v>15</v>
-      </c>
-      <c r="F18" s="29">
-        <v>15</v>
-      </c>
-      <c r="G18" s="29">
-        <v>10</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="29">
-        <f>SUM(C18:J18)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="29">
-        <v>15</v>
-      </c>
-      <c r="D19" s="29">
-        <v>15</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="29">
-        <f>SUM(C19:J19)</f>
-        <v>30</v>
-      </c>
-    </row>
     <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
     </row>
     <row r="22" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="24" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7351FE-C4C4-C44F-A617-048ABE665A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D3F2C8-ED76-3E47-BCC9-BABA51922CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -1546,7 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="185" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="185" workbookViewId="0">
       <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S12" sqref="S12"/>
     </sheetView>
@@ -2945,8 +2945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="159" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3015,7 +3015,9 @@
       <c r="D2" s="16">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="15">
+        <v>5</v>
+      </c>
       <c r="F2" s="15">
         <v>12</v>
       </c>
@@ -3025,7 +3027,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="16">
         <f t="shared" ref="K2:K19" si="0">SUM(C2:J2)</f>
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3065,7 +3067,9 @@
       <c r="D4" s="16">
         <v>15</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="15">
+        <v>15</v>
+      </c>
       <c r="F4" s="16">
         <v>15</v>
       </c>
@@ -3075,7 +3079,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3091,7 +3095,9 @@
       <c r="D5" s="16">
         <v>15</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15">
+        <v>15</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -3099,7 +3105,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="16">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,14 +3146,16 @@
       <c r="E7" s="16">
         <v>15</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="15">
+        <v>12</v>
+      </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="16">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3196,7 +3204,9 @@
       <c r="E9" s="16">
         <v>15</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="15">
+        <v>15</v>
+      </c>
       <c r="G9" s="16">
         <v>10</v>
       </c>
@@ -3205,7 +3215,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="16">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3275,7 +3285,9 @@
       <c r="D12" s="16">
         <v>12</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15">
+        <v>15</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -3283,7 +3295,7 @@
       <c r="J12" s="15"/>
       <c r="K12" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3459,7 +3471,9 @@
       <c r="D19" s="27">
         <v>15</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="28">
+        <v>15</v>
+      </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -3467,7 +3481,7 @@
       <c r="J19" s="28"/>
       <c r="K19" s="27">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D3F2C8-ED76-3E47-BCC9-BABA51922CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593DCC78-728D-0C47-B419-4DA60A5C1B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -1546,9 +1546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="185" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S12" sqref="S12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="185" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1624,7 +1624,9 @@
       <c r="U1" s="31">
         <v>45029</v>
       </c>
-      <c r="V1" s="32"/>
+      <c r="V1" s="31">
+        <v>45036</v>
+      </c>
       <c r="W1" s="32"/>
       <c r="X1" s="32" t="s">
         <v>32</v>
@@ -1694,11 +1696,13 @@
       <c r="U2" s="32">
         <v>10</v>
       </c>
-      <c r="V2" s="32"/>
+      <c r="V2" s="32">
+        <v>15</v>
+      </c>
       <c r="W2" s="32"/>
       <c r="X2" s="32">
         <f>SUM(K2:W2)</f>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1765,11 +1769,13 @@
       <c r="U3" s="32">
         <v>0</v>
       </c>
-      <c r="V3" s="32"/>
+      <c r="V3" s="32">
+        <v>15</v>
+      </c>
       <c r="W3" s="32"/>
       <c r="X3" s="32">
         <f t="shared" ref="X3:X19" si="0">SUM(K3:W3)</f>
-        <v>-20</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1836,11 +1842,13 @@
       <c r="U4" s="32">
         <v>0</v>
       </c>
-      <c r="V4" s="32"/>
+      <c r="V4" s="32">
+        <v>15</v>
+      </c>
       <c r="W4" s="32"/>
       <c r="X4" s="32">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1907,11 +1915,13 @@
       <c r="U5" s="32">
         <v>10</v>
       </c>
-      <c r="V5" s="32"/>
+      <c r="V5" s="32">
+        <v>15</v>
+      </c>
       <c r="W5" s="32"/>
       <c r="X5" s="32">
         <f t="shared" si="0"/>
-        <v>-60</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1978,11 +1988,13 @@
       <c r="U6" s="32">
         <v>10</v>
       </c>
-      <c r="V6" s="32"/>
+      <c r="V6" s="32">
+        <v>-10</v>
+      </c>
       <c r="W6" s="32"/>
       <c r="X6" s="32">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2049,11 +2061,13 @@
       <c r="U7" s="32">
         <v>10</v>
       </c>
-      <c r="V7" s="32"/>
+      <c r="V7" s="32">
+        <v>15</v>
+      </c>
       <c r="W7" s="32"/>
       <c r="X7" s="32">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2120,11 +2134,13 @@
       <c r="U8" s="32">
         <v>-15</v>
       </c>
-      <c r="V8" s="32"/>
+      <c r="V8" s="32">
+        <v>-10</v>
+      </c>
       <c r="W8" s="32"/>
       <c r="X8" s="32">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2191,11 +2207,13 @@
       <c r="U9" s="32">
         <v>10</v>
       </c>
-      <c r="V9" s="32"/>
+      <c r="V9" s="32">
+        <v>-10</v>
+      </c>
       <c r="W9" s="32"/>
       <c r="X9" s="32">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2262,11 +2280,13 @@
       <c r="U10" s="32">
         <v>10</v>
       </c>
-      <c r="V10" s="32"/>
+      <c r="V10" s="32">
+        <v>15</v>
+      </c>
       <c r="W10" s="32"/>
       <c r="X10" s="32">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2333,11 +2353,13 @@
       <c r="U11" s="32">
         <v>10</v>
       </c>
-      <c r="V11" s="32"/>
+      <c r="V11" s="32">
+        <v>-10</v>
+      </c>
       <c r="W11" s="32"/>
       <c r="X11" s="32">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2404,13 +2426,15 @@
       <c r="U12" s="32">
         <v>10</v>
       </c>
-      <c r="V12" s="32"/>
+      <c r="V12" s="32">
+        <v>15</v>
+      </c>
       <c r="W12" s="32" t="s">
         <v>33</v>
       </c>
       <c r="X12" s="32">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2477,11 +2501,13 @@
       <c r="U13" s="32">
         <v>-15</v>
       </c>
-      <c r="V13" s="32"/>
+      <c r="V13" s="32">
+        <v>-10</v>
+      </c>
       <c r="W13" s="32"/>
       <c r="X13" s="32">
         <f t="shared" si="0"/>
-        <v>-70</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2548,11 +2574,13 @@
       <c r="U14" s="32">
         <v>10</v>
       </c>
-      <c r="V14" s="32"/>
+      <c r="V14" s="32">
+        <v>-10</v>
+      </c>
       <c r="W14" s="32"/>
       <c r="X14" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2619,11 +2647,13 @@
       <c r="U15" s="32">
         <v>-15</v>
       </c>
-      <c r="V15" s="32"/>
+      <c r="V15" s="32">
+        <v>-10</v>
+      </c>
       <c r="W15" s="32"/>
       <c r="X15" s="32">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2690,11 +2720,13 @@
       <c r="U16" s="32">
         <v>10</v>
       </c>
-      <c r="V16" s="32"/>
+      <c r="V16" s="32">
+        <v>15</v>
+      </c>
       <c r="W16" s="32"/>
       <c r="X16" s="32">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2761,11 +2793,13 @@
       <c r="U17" s="32">
         <v>10</v>
       </c>
-      <c r="V17" s="32"/>
+      <c r="V17" s="32">
+        <v>-10</v>
+      </c>
       <c r="W17" s="32"/>
       <c r="X17" s="32">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2832,11 +2866,13 @@
       <c r="U18" s="32">
         <v>10</v>
       </c>
-      <c r="V18" s="32"/>
+      <c r="V18" s="32">
+        <v>-10</v>
+      </c>
       <c r="W18" s="32"/>
       <c r="X18" s="32">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2903,11 +2939,13 @@
       <c r="U19" s="32">
         <v>10</v>
       </c>
-      <c r="V19" s="32"/>
+      <c r="V19" s="32">
+        <v>15</v>
+      </c>
       <c r="W19" s="32"/>
       <c r="X19" s="32">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2945,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" zoomScale="159" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Успеваемость_С-ИП-21-1.xlsx
+++ b/Успеваемость_С-ИП-21-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593DCC78-728D-0C47-B419-4DA60A5C1B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE02FD3-AE3E-D941-BF5F-A6504176F7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="33">
   <si>
     <t>№</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Рейтинг</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1546,9 +1543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="185" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V4" sqref="V4"/>
+    <sheetView showGridLines="0" zoomScale="185" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1627,7 +1624,9 @@
       <c r="V1" s="31">
         <v>45036</v>
       </c>
-      <c r="W1" s="32"/>
+      <c r="W1" s="31">
+        <v>45037</v>
+      </c>
       <c r="X1" s="32" t="s">
         <v>32</v>
       </c>
@@ -1699,10 +1698,12 @@
       <c r="V2" s="32">
         <v>15</v>
       </c>
-      <c r="W2" s="32"/>
+      <c r="W2" s="32">
+        <v>10</v>
+      </c>
       <c r="X2" s="32">
         <f>SUM(K2:W2)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1772,10 +1773,12 @@
       <c r="V3" s="32">
         <v>15</v>
       </c>
-      <c r="W3" s="32"/>
+      <c r="W3" s="32">
+        <v>10</v>
+      </c>
       <c r="X3" s="32">
         <f t="shared" ref="X3:X19" si="0">SUM(K3:W3)</f>
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1845,10 +1848,12 @@
       <c r="V4" s="32">
         <v>15</v>
       </c>
-      <c r="W4" s="32"/>
+      <c r="W4" s="32">
+        <v>10</v>
+      </c>
       <c r="X4" s="32">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1918,10 +1923,12 @@
       <c r="V5" s="32">
         <v>15</v>
       </c>
-      <c r="W5" s="32"/>
+      <c r="W5" s="32">
+        <v>10</v>
+      </c>
       <c r="X5" s="32">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1991,10 +1998,12 @@
       <c r="V6" s="32">
         <v>-10</v>
       </c>
-      <c r="W6" s="32"/>
+      <c r="W6" s="32">
+        <v>10</v>
+      </c>
       <c r="X6" s="32">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2064,10 +2073,12 @@
       <c r="V7" s="32">
         <v>15</v>
       </c>
-      <c r="W7" s="32"/>
+      <c r="W7" s="32">
+        <v>10</v>
+      </c>
       <c r="X7" s="32">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2137,10 +2148,12 @@
       <c r="V8" s="32">
         <v>-10</v>
       </c>
-      <c r="W8" s="32"/>
+      <c r="W8" s="32">
+        <v>10</v>
+      </c>
       <c r="X8" s="32">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2210,10 +2223,12 @@
       <c r="V9" s="32">
         <v>-10</v>
       </c>
-      <c r="W9" s="32"/>
+      <c r="W9" s="32">
+        <v>10</v>
+      </c>
       <c r="X9" s="32">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2283,10 +2298,12 @@
       <c r="V10" s="32">
         <v>15</v>
       </c>
-      <c r="W10" s="32"/>
+      <c r="W10" s="32">
+        <v>10</v>
+      </c>
       <c r="X10" s="32">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2356,10 +2373,12 @@
       <c r="V11" s="32">
         <v>-10</v>
       </c>
-      <c r="W11" s="32"/>
+      <c r="W11" s="32">
+        <v>10</v>
+      </c>
       <c r="X11" s="32">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,12 +2448,12 @@
       <c r="V12" s="32">
         <v>15</v>
       </c>
-      <c r="W12" s="32" t="s">
-        <v>33</v>
+      <c r="W12" s="32">
+        <v>10</v>
       </c>
       <c r="X12" s="32">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2504,10 +2523,12 @@
       <c r="V13" s="32">
         <v>-10</v>
       </c>
-      <c r="W13" s="32"/>
+      <c r="W13" s="32">
+        <v>-15</v>
+      </c>
       <c r="X13" s="32">
         <f t="shared" si="0"/>
-        <v>-80</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2577,10 +2598,12 @@
       <c r="V14" s="32">
         <v>-10</v>
       </c>
-      <c r="W14" s="32"/>
+      <c r="W14" s="32">
+        <v>10</v>
+      </c>
       <c r="X14" s="32">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2650,10 +2673,12 @@
       <c r="V15" s="32">
         <v>-10</v>
       </c>
-      <c r="W15" s="32"/>
+      <c r="W15" s="32">
+        <v>-15</v>
+      </c>
       <c r="X15" s="32">
         <f t="shared" si="0"/>
-        <v>-160</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2723,10 +2748,12 @@
       <c r="V16" s="32">
         <v>15</v>
       </c>
-      <c r="W16" s="32"/>
+      <c r="W16" s="32">
+        <v>10</v>
+      </c>
       <c r="X16" s="32">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2796,10 +2823,12 @@
       <c r="V17" s="32">
         <v>-10</v>
       </c>
-      <c r="W17" s="32"/>
+      <c r="W17" s="32">
+        <v>10</v>
+      </c>
       <c r="X17" s="32">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2869,10 +2898,12 @@
       <c r="V18" s="32">
         <v>-10</v>
       </c>
-      <c r="W18" s="32"/>
+      <c r="W18" s="32">
+        <v>10</v>
+      </c>
       <c r="X18" s="32">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2942,10 +2973,12 @@
       <c r="V19" s="32">
         <v>15</v>
       </c>
-      <c r="W19" s="32"/>
+      <c r="W19" s="32">
+        <v>10</v>
+      </c>
       <c r="X19" s="32">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2983,8 +3016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="159" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3081,7 +3114,9 @@
       <c r="D3" s="16">
         <v>15</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="15">
+        <v>15</v>
+      </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -3089,7 +3124,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3112,12 +3147,14 @@
         <v>15</v>
       </c>
       <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="H4" s="15">
+        <v>10</v>
+      </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3136,14 +3173,16 @@
       <c r="E5" s="15">
         <v>15</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="15">
+        <v>15</v>
+      </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="16">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3156,16 +3195,22 @@
       <c r="C6" s="16">
         <v>12</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="15">
+        <v>15</v>
+      </c>
+      <c r="E6" s="15">
+        <v>15</v>
+      </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>6</v>
+      </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3269,15 +3314,21 @@
       <c r="D10" s="16">
         <v>15</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="E10" s="15">
+        <v>15</v>
+      </c>
+      <c r="F10" s="15">
+        <v>15</v>
+      </c>
+      <c r="G10" s="15">
+        <v>10</v>
+      </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3302,12 +3353,14 @@
       <c r="G11" s="16">
         <v>10</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="15">
+        <v>10</v>
+      </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="16">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3326,14 +3379,18 @@
       <c r="E12" s="15">
         <v>15</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="15">
+        <v>15</v>
+      </c>
+      <c r="G12" s="15">
+        <v>5</v>
+      </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="16">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3355,13 +3412,15 @@
       <c r="F13" s="16">
         <v>15</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="15">
+        <v>10</v>
+      </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3377,15 +3436,19 @@
       <c r="D14" s="16">
         <v>10</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="15">
+        <v>15</v>
+      </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="15">
+        <v>6</v>
+      </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3428,12 +3491,14 @@
         <v>15</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="H16" s="15">
+        <v>10</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3488,12 +3553,14 @@
       <c r="G18" s="27">
         <v>10</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="28">
+        <v>10</v>
+      </c>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
       <c r="K18" s="27">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3512,14 +3579,18 @@
       <c r="E19" s="28">
         <v>15</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="F19" s="28">
+        <v>15</v>
+      </c>
+      <c r="G19" s="28">
+        <v>10</v>
+      </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="27">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
